--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Company\Library\AD_Library\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D10F22-432F-4486-874C-7F05F918BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C6E5D-8A21-4595-ACFF-E9A85892DBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,10 +234,6 @@
     <t>Connector_1X19P</t>
   </si>
   <si>
-    <t>E:\Company\Library\AD_Library\SCH\09_Connector.SchLib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SF09-01-00000021</t>
   </si>
   <si>
@@ -1331,7 +1327,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\Company\Library\AD_Library\PCB\004-Connector.PcbLib</t>
+    <t>G:\Library\AD_Library\SCH\09_Connector.SchLib</t>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\004-Connector.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -1704,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1799,19 +1798,19 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>373</v>
@@ -1825,19 +1824,19 @@
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>373</v>
@@ -1851,19 +1850,19 @@
         <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>373</v>
@@ -1877,19 +1876,19 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>373</v>
@@ -1903,19 +1902,19 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>373</v>
@@ -1929,19 +1928,19 @@
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>373</v>
@@ -1955,19 +1954,19 @@
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>373</v>
@@ -1981,19 +1980,19 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>373</v>
@@ -2007,19 +2006,19 @@
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>373</v>
@@ -2033,19 +2032,19 @@
         <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>373</v>
@@ -2059,19 +2058,19 @@
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>373</v>
@@ -2085,19 +2084,19 @@
         <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>373</v>
@@ -2111,19 +2110,19 @@
         <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>373</v>
@@ -2137,19 +2136,19 @@
         <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>373</v>
@@ -2163,19 +2162,19 @@
         <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>373</v>
@@ -2189,19 +2188,19 @@
         <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>373</v>
@@ -2215,19 +2214,19 @@
         <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>373</v>
@@ -2241,19 +2240,19 @@
         <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>373</v>
@@ -2267,19 +2266,19 @@
         <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>373</v>
@@ -2293,19 +2292,19 @@
         <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>373</v>
@@ -2313,25 +2312,25 @@
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>373</v>
@@ -2339,25 +2338,25 @@
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>373</v>
@@ -2365,25 +2364,25 @@
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>373</v>
@@ -2391,25 +2390,25 @@
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>373</v>
@@ -2417,25 +2416,25 @@
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>373</v>
@@ -2443,25 +2442,25 @@
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>373</v>
@@ -2469,25 +2468,25 @@
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>373</v>
@@ -2495,25 +2494,25 @@
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>373</v>
@@ -2521,25 +2520,25 @@
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="G30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>373</v>
@@ -2547,25 +2546,25 @@
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>373</v>
@@ -2573,25 +2572,25 @@
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>373</v>
@@ -2599,25 +2598,25 @@
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="G33" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>373</v>
@@ -2625,25 +2624,25 @@
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>373</v>
@@ -2651,25 +2650,25 @@
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="G35" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>373</v>
@@ -2677,25 +2676,25 @@
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>373</v>
@@ -2703,25 +2702,25 @@
     </row>
     <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="G37" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>373</v>
@@ -2729,25 +2728,25 @@
     </row>
     <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="G38" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>373</v>
@@ -2755,25 +2754,25 @@
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="G39" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>373</v>
@@ -2781,25 +2780,25 @@
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="G40" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>373</v>
@@ -2807,25 +2806,25 @@
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>373</v>
@@ -2833,25 +2832,25 @@
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>373</v>
@@ -2859,25 +2858,25 @@
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>373</v>
@@ -2885,25 +2884,25 @@
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>373</v>
@@ -2911,25 +2910,25 @@
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>373</v>
@@ -2937,25 +2936,25 @@
     </row>
     <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>373</v>
@@ -2963,25 +2962,25 @@
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>373</v>
@@ -2989,25 +2988,25 @@
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>373</v>
@@ -3015,25 +3014,25 @@
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>373</v>
@@ -3041,25 +3040,25 @@
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>373</v>
@@ -3067,25 +3066,25 @@
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>373</v>
@@ -3093,25 +3092,25 @@
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>373</v>
@@ -3119,25 +3118,25 @@
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>373</v>
@@ -3145,25 +3144,25 @@
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>373</v>
@@ -3171,25 +3170,25 @@
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>373</v>
@@ -3197,25 +3196,25 @@
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>373</v>
@@ -3223,25 +3222,25 @@
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>373</v>
@@ -3249,25 +3248,25 @@
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>373</v>
@@ -3275,25 +3274,25 @@
     </row>
     <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>373</v>
@@ -3301,25 +3300,25 @@
     </row>
     <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>335</v>
-      </c>
       <c r="G60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>373</v>
@@ -3327,25 +3326,25 @@
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>373</v>
@@ -3353,25 +3352,25 @@
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="G62" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>373</v>
@@ -3379,25 +3378,25 @@
     </row>
     <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="G63" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>373</v>
@@ -3405,25 +3404,25 @@
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="G64" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>373</v>
@@ -3431,25 +3430,25 @@
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="G65" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>373</v>
@@ -3457,25 +3456,25 @@
     </row>
     <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>346</v>
-      </c>
       <c r="G66" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>373</v>
@@ -3483,25 +3482,25 @@
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="G67" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>373</v>
@@ -3509,25 +3508,25 @@
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="G68" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>373</v>
@@ -3535,25 +3534,25 @@
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="G69" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>373</v>
@@ -3561,25 +3560,25 @@
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="G70" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>373</v>
@@ -3587,25 +3586,25 @@
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>356</v>
-      </c>
       <c r="G71" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>373</v>
@@ -3613,25 +3612,25 @@
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>358</v>
-      </c>
       <c r="G72" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>373</v>
@@ -3639,25 +3638,25 @@
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="G73" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>373</v>
@@ -3665,25 +3664,25 @@
     </row>
     <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>362</v>
-      </c>
       <c r="G74" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>373</v>
@@ -3691,25 +3690,25 @@
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>364</v>
-      </c>
       <c r="G75" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>373</v>
@@ -3717,25 +3716,25 @@
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="G76" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>373</v>
@@ -3743,25 +3742,25 @@
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>368</v>
-      </c>
       <c r="G77" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>373</v>
@@ -3769,25 +3768,25 @@
     </row>
     <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="G78" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>373</v>
@@ -3795,25 +3794,25 @@
     </row>
     <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="G79" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>373</v>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C6E5D-8A21-4595-ACFF-E9A85892DBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42313D99-91C9-4D23-9AF3-26209FD0E82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="400">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,865 +472,966 @@
     <t>SF09-02-00000038</t>
   </si>
   <si>
+    <t>PZ_2.54_1X1P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X1P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X2P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X3P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X4P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X5P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X6P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X7P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X8P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X9P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X10P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X11P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X12P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X13P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X14P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X15P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X16P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X17P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X18P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_1X19P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X2P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X3P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X4P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X5P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X6P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X7P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X8P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X9P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X10P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X11P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X12P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X13P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X14P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X15P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X16P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X17P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X18P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X19P_LH</t>
+  </si>
+  <si>
+    <t>PZ_2.54_2X20P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X1P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X1P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X2P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X3P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X4P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X5P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X6P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X7P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X8P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X9P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X10P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X11P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X12P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X13P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X14P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X15P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X16P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X17P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X18P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X19P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_1X20P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X2P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X2P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X3P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X4P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X5P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X6P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X7P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X8P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X9P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X10P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X11P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X12P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X13P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X14P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X15P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X16P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X17P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X18P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X19P_LH</t>
+  </si>
+  <si>
+    <t>PM_2.54_2X20P_LH</t>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X1P-直插-PZ_2.54_1X1P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X2P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X2P-直插-PZ_2.54_1X2P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X3P-直插-PZ_2.54_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X4P-直插-PZ_2.54_1X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X5P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X5P-直插-PZ_2.54_1X5P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X6P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X6P-直插-PZ_2.54_1X6P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X7P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X7P-直插-PZ_2.54_1X7P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X8P-直插-PZ_2.54_1X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X9P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X9P-直插-PZ_2.54_1X9P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X10P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X10P-直插-PZ_2.54_1X10P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X11P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X11P-直插-PZ_2.54_1X11P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X12P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X12P-直插-PZ_2.54_1X12P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X13P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X13P-直插-PZ_2.54_1X13P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X14P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X14P-直插-PZ_2.54_1X14P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X15P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X15P-直插-PZ_2.54_1X15P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X16P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X16P-直插-PZ_2.54_1X16P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X17P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X17P-直插-PZ_2.54_1X17P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X18P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X18P-直插-PZ_2.54_1X18P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X19P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X19P-直插-PZ_2.54_1X19P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_1X20P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针-间距2.54mm-1X20P-直插-PZ_2.54_1X20P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X2P-直插-PZ_2.54_2X2P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X3P-直插-PZ_2.54_2X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X4P-直插-PZ_2.54_2X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X5P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X5P-直插-PZ_2.54_2X5P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X7P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X6P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X6P-直插-PZ_2.54_2X6P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X7P-直插-PZ_2.54_2X7P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X9P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X8P-直插-PZ_2.54_2X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X9P-直插-PZ_2.54_2X9P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X10P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X10P-直插-PZ_2.54_2X10P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X11P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X11P-直插-PZ_2.54_2X11P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X12P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X12P-直插-PZ_2.54_2X12P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X13P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X13P-直插-PZ_2.54_2X13P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X14P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X14P-直插-PZ_2.54_2X14P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X15P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X15P-直插-PZ_2.54_2X15P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X16P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X16P-直插-PZ_2.54_2X16P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X17P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X17P-直插-PZ_2.54_2X17P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X18P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X18P-直插-PZ_2.54_2X18P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X19P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X19P-直插-PZ_2.54_2X19P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.54_2X20P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-间距2.54mm-2X20P-直插-PZ_2.54_2X20P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X1P-直插-PM_2.54_1X1P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X2P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X2P-直插-PM_2.54_1X2P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X3P-直插-PM_2.54_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X4P-直插-PM_2.54_1X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X5P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X5P-直插-PM_2.54_1X5P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X6P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X6P-直插-PM_2.54_1X6P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X7P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X7P-直插-PM_2.54_1X7P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X8P-直插-PM_2.54_1X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X9P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X9P-直插-PM_2.54_1X9P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X10P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X10P-直插-PM_2.54_1X10P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X11P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X11P-直插-PM_2.54_1X11P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X12P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X12P-直插-PM_2.54_1X12P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X13P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X13P-直插-PM_2.54_1X13P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X14P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X14P-直插-PM_2.54_1X14P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X15P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X15P-直插-PM_2.54_1X15P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X16P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X16P-直插-PM_2.54_1X16P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X17P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X17P-直插-PM_2.54_1X17P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X18P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X18P-直插-PM_2.54_1X18P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X19P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X19P-直插-PM_2.54_1X19P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_1X20P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-间距2.54mm-1X20P-直插-PM_2.54_1X20P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X2P-直插-PM_2.54_2X2P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X3P-直插-PM_2.54_2X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X4P-直插-PM_2.54_2X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X5P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X5P-直插-PM_2.54_2X5P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X6P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X6P-直插-PM_2.54_2X6P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X7P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X7P-直插-PM_2.54_2X7P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X8P-直插-PM_2.54_2X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X9P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X9P-直插-PM_2.54_2X9P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X10P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X10P-直插-PM_2.54_2X10P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X11P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X11P-直插-PM_2.54_2X11P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X12P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X12P-直插-PM_2.54_2X12P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X13P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X13P-直插-PM_2.54_2X13P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X14P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X14P-直插-PM_2.54_2X14P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X15P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X15P-直插-PM_2.54_2X15P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X16P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X16P-直插-PM_2.54_2X16P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X17P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X17P-直插-PM_2.54_2X17P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X18P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X18P-直插-PM_2.54_2X18P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X19P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X19P-直插-PM_2.54_2X19P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.54_2X20P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-间距2.54mm-2X20P-直插-PM_2.54_2X20P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\SCH\09_Connector.SchLib</t>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\004-Connector.PcbLib</t>
+  </si>
+  <si>
+    <t>SF09-01-00000040</t>
+  </si>
+  <si>
+    <t>PZ_2.00_2X8P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CJT(长江连接器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2005WR-2x8P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-A2005WR-2x8P-间距2.00mm-2X8P-弯插-PZ_2.00_2X8P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\A2005_CJT_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>-40℃~+105℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF09-01-00000041</t>
+  </si>
+  <si>
+    <t>SF09-01-00000042</t>
+  </si>
+  <si>
+    <t>PZ_2.00_2X4P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.00_2X5P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2005WR-2x4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2005WR-2x5P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-A2005WR-2x5P-间距2.00mm-2X5P-弯插-PZ_2.00_2X5P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-A2005WR-2x4P-间距2.00mm-2X4P-弯插-PZ_2.00_2X4P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16mmx8.5mmx6.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8mmx8.5mmx6.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10mmx8.5mmx6.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SF09-02-00000039</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X1P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X1P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X2P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X3P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X4P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X5P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X6P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X7P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X8P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X9P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X10P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X11P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X12P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X13P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X14P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X15P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X16P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X17P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X18P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_1X19P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X2P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X3P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X4P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X5P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X6P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X7P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X8P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X9P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X10P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X11P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X12P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X13P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X14P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X15P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X16P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X17P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X18P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X19P_LH</t>
-  </si>
-  <si>
-    <t>PZ_2.54_2X20P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X1P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X1P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X2P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X3P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X4P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X5P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X6P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X7P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X8P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X9P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X10P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X11P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X12P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X13P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X14P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X15P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X16P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X17P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X18P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X19P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_1X20P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X2P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X2P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X3P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X4P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X5P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X6P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X7P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X8P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X9P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X10P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X11P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X12P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X13P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X14P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X15P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X16P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X17P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X18P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X19P_LH</t>
-  </si>
-  <si>
-    <t>PM_2.54_2X20P_LH</t>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X1P-直插-PZ_2.54_1X1P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X2P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X2P-直插-PZ_2.54_1X2P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X3P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X3P-直插-PZ_2.54_1X3P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X4P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X4P-直插-PZ_2.54_1X4P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X5P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X5P-直插-PZ_2.54_1X5P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X6P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X6P-直插-PZ_2.54_1X6P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X7P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X7P-直插-PZ_2.54_1X7P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X8P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X8P-直插-PZ_2.54_1X8P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X9P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X9P-直插-PZ_2.54_1X9P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X10P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X10P-直插-PZ_2.54_1X10P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X11P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X11P-直插-PZ_2.54_1X11P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X12P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X12P-直插-PZ_2.54_1X12P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X13P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X13P-直插-PZ_2.54_1X13P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X14P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X14P-直插-PZ_2.54_1X14P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X15P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X15P-直插-PZ_2.54_1X15P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X16P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X16P-直插-PZ_2.54_1X16P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X17P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X17P-直插-PZ_2.54_1X17P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X18P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X18P-直插-PZ_2.54_1X18P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X19P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X19P-直插-PZ_2.54_1X19P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_1X20P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排针-间距2.54mm-1X20P-直插-PZ_2.54_1X20P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X2P-直插-PZ_2.54_2X2P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X3P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X3P-直插-PZ_2.54_2X3P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X4P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X4P-直插-PZ_2.54_2X4P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X5P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X5P-直插-PZ_2.54_2X5P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X7P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X6P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X6P-直插-PZ_2.54_2X6P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X7P-直插-PZ_2.54_2X7P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X9P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X8P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X8P-直插-PZ_2.54_2X8P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X9P-直插-PZ_2.54_2X9P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X10P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X10P-直插-PZ_2.54_2X10P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X11P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X11P-直插-PZ_2.54_2X11P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X12P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X12P-直插-PZ_2.54_2X12P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X13P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X13P-直插-PZ_2.54_2X13P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X14P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X14P-直插-PZ_2.54_2X14P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X15P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X15P-直插-PZ_2.54_2X15P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X16P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X16P-直插-PZ_2.54_2X16P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X17P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X17P-直插-PZ_2.54_2X17P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X18P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X18P-直插-PZ_2.54_2X18P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X19P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X19P-直插-PZ_2.54_2X19P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PZ_2.54_2X20P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-间距2.54mm-2X20P-直插-PZ_2.54_2X20P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X1P-直插-PM_2.54_1X1P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X2P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X2P-直插-PM_2.54_1X2P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X3P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X3P-直插-PM_2.54_1X3P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X4P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X4P-直插-PM_2.54_1X4P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X5P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X5P-直插-PM_2.54_1X5P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X6P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X6P-直插-PM_2.54_1X6P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X7P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X7P-直插-PM_2.54_1X7P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X8P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X8P-直插-PM_2.54_1X8P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X9P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X9P-直插-PM_2.54_1X9P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X10P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X10P-直插-PM_2.54_1X10P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X11P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X11P-直插-PM_2.54_1X11P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X12P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X12P-直插-PM_2.54_1X12P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X13P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X13P-直插-PM_2.54_1X13P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X14P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X14P-直插-PM_2.54_1X14P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X15P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X15P-直插-PM_2.54_1X15P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X16P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X16P-直插-PM_2.54_1X16P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X17P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X17P-直插-PM_2.54_1X17P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X18P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X18P-直插-PM_2.54_1X18P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X19P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X19P-直插-PM_2.54_1X19P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_1X20P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-间距2.54mm-1X20P-直插-PM_2.54_1X20P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X2P-直插-PM_2.54_2X2P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X3P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X3P-直插-PM_2.54_2X3P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X4P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X4P-直插-PM_2.54_2X4P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X5P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X5P-直插-PM_2.54_2X5P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X6P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X6P-直插-PM_2.54_2X6P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X7P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X7P-直插-PM_2.54_2X7P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X8P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X8P-直插-PM_2.54_2X8P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X9P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X9P-直插-PM_2.54_2X9P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X10P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X10P-直插-PM_2.54_2X10P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X11P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X11P-直插-PM_2.54_2X11P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X12P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X12P-直插-PM_2.54_2X12P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X13P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X13P-直插-PM_2.54_2X13P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X14P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X14P-直插-PM_2.54_2X14P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X15P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X15P-直插-PM_2.54_2X15P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X16P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X16P-直插-PM_2.54_2X16P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X17P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X17P-直插-PM_2.54_2X17P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X18P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X18P-直插-PM_2.54_2X18P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X19P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X19P-直插-PM_2.54_2X19P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.54_2X20P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-间距2.54mm-2X20P-直插-PM_2.54_2X20P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\AD_Library\SCH\09_Connector.SchLib</t>
-  </si>
-  <si>
-    <t>G:\Library\AD_Library\PCB\004-Connector.PcbLib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF09-03-00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧顶针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POGOPING_2.54_2P_WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZXS-1191BJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市元升电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POGOPING弹簧顶针-间距2.54mm-2Pin-卧贴-深圳市元升电子-POGOPING_2.54_2P_WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1404,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1420,6 +1521,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1701,10 +1805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1716,8 +1821,7 @@
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="100.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="100.58203125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
     <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
     <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
@@ -1798,22 +1902,22 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1824,22 +1928,22 @@
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1850,22 +1954,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1876,22 +1980,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1902,22 +2006,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1928,22 +2032,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1954,22 +2058,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1980,22 +2084,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2006,22 +2110,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2032,22 +2136,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2058,22 +2162,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2084,22 +2188,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2110,22 +2214,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2136,22 +2240,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2162,22 +2266,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2188,22 +2292,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2214,22 +2318,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2240,22 +2344,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2266,22 +2370,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2292,22 +2396,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2318,22 +2422,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2344,22 +2448,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2370,22 +2474,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2396,22 +2500,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2422,22 +2526,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2448,22 +2552,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2474,22 +2578,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2500,22 +2604,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>87</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2526,22 +2630,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2552,22 +2656,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>89</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2578,25 +2682,25 @@
         <v>22</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -2604,25 +2708,25 @@
         <v>22</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>73</v>
       </c>
@@ -2630,25 +2734,25 @@
         <v>22</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>92</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>74</v>
       </c>
@@ -2656,25 +2760,25 @@
         <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
@@ -2682,25 +2786,25 @@
         <v>22</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -2708,25 +2812,25 @@
         <v>22</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>95</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
@@ -2734,25 +2838,25 @@
         <v>22</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
@@ -2760,25 +2864,25 @@
         <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>99</v>
       </c>
@@ -2786,1036 +2890,1209 @@
         <v>22</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J40" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>201</v>
+        <v>328</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G79" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H79" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>373</v>
+      <c r="H82" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42313D99-91C9-4D23-9AF3-26209FD0E82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1CE091-D4FE-491B-8747-98EDA481B13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1430,7 +1430,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POGOPING弹簧顶针-间距2.54mm-2Pin-卧贴-深圳市元升电子-POGOPING_2.54_2P_WT</t>
+    <t>POGOPING弹簧顶针-ZXS-1191BJ-间距2.54mm-2Pin-卧贴-深圳市元升电子-POGOPING_2.54_2P_WT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1808,8 +1808,8 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1CE091-D4FE-491B-8747-98EDA481B13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B419A2A0-6AF0-4CD0-952E-6FA9B14E41D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,71 +111,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF09-01-00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF09-01-00000002</t>
-  </si>
-  <si>
-    <t>SF09-01-00000003</t>
-  </si>
-  <si>
-    <t>SF09-01-00000004</t>
-  </si>
-  <si>
-    <t>SF09-01-00000005</t>
-  </si>
-  <si>
-    <t>SF09-01-00000006</t>
-  </si>
-  <si>
-    <t>SF09-01-00000007</t>
-  </si>
-  <si>
-    <t>SF09-01-00000008</t>
-  </si>
-  <si>
-    <t>SF09-01-00000009</t>
-  </si>
-  <si>
-    <t>SF09-01-00000010</t>
-  </si>
-  <si>
-    <t>SF09-01-00000011</t>
-  </si>
-  <si>
-    <t>SF09-01-00000012</t>
-  </si>
-  <si>
-    <t>SF09-01-00000013</t>
-  </si>
-  <si>
-    <t>SF09-01-00000014</t>
-  </si>
-  <si>
-    <t>SF09-01-00000015</t>
-  </si>
-  <si>
-    <t>SF09-01-00000016</t>
-  </si>
-  <si>
-    <t>SF09-01-00000017</t>
-  </si>
-  <si>
-    <t>SF09-01-00000018</t>
-  </si>
-  <si>
-    <t>SF09-01-00000019</t>
-  </si>
-  <si>
-    <t>SF09-01-00000020</t>
-  </si>
-  <si>
     <t>Connector_1X1P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,60 +173,6 @@
     <t>Connector_1X19P</t>
   </si>
   <si>
-    <t>SF09-01-00000021</t>
-  </si>
-  <si>
-    <t>SF09-01-00000022</t>
-  </si>
-  <si>
-    <t>SF09-01-00000023</t>
-  </si>
-  <si>
-    <t>SF09-01-00000024</t>
-  </si>
-  <si>
-    <t>SF09-01-00000025</t>
-  </si>
-  <si>
-    <t>SF09-01-00000026</t>
-  </si>
-  <si>
-    <t>SF09-01-00000027</t>
-  </si>
-  <si>
-    <t>SF09-01-00000028</t>
-  </si>
-  <si>
-    <t>SF09-01-00000029</t>
-  </si>
-  <si>
-    <t>SF09-01-00000030</t>
-  </si>
-  <si>
-    <t>SF09-01-00000031</t>
-  </si>
-  <si>
-    <t>SF09-01-00000032</t>
-  </si>
-  <si>
-    <t>SF09-01-00000033</t>
-  </si>
-  <si>
-    <t>SF09-01-00000034</t>
-  </si>
-  <si>
-    <t>SF09-01-00000035</t>
-  </si>
-  <si>
-    <t>SF09-01-00000036</t>
-  </si>
-  <si>
-    <t>SF09-01-00000037</t>
-  </si>
-  <si>
-    <t>SF09-01-00000038</t>
-  </si>
-  <si>
     <t>Connector_1X20P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,129 +234,10 @@
     <t>Connector_2X20P</t>
   </si>
   <si>
-    <t>SF09-01-00000039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF09-02-00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排母</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF09-02-00000002</t>
-  </si>
-  <si>
-    <t>SF09-02-00000003</t>
-  </si>
-  <si>
-    <t>SF09-02-00000004</t>
-  </si>
-  <si>
-    <t>SF09-02-00000005</t>
-  </si>
-  <si>
-    <t>SF09-02-00000006</t>
-  </si>
-  <si>
-    <t>SF09-02-00000007</t>
-  </si>
-  <si>
-    <t>SF09-02-00000008</t>
-  </si>
-  <si>
-    <t>SF09-02-00000009</t>
-  </si>
-  <si>
-    <t>SF09-02-00000010</t>
-  </si>
-  <si>
-    <t>SF09-02-00000011</t>
-  </si>
-  <si>
-    <t>SF09-02-00000012</t>
-  </si>
-  <si>
-    <t>SF09-02-00000013</t>
-  </si>
-  <si>
-    <t>SF09-02-00000014</t>
-  </si>
-  <si>
-    <t>SF09-02-00000015</t>
-  </si>
-  <si>
-    <t>SF09-02-00000016</t>
-  </si>
-  <si>
-    <t>SF09-02-00000017</t>
-  </si>
-  <si>
-    <t>SF09-02-00000018</t>
-  </si>
-  <si>
-    <t>SF09-02-00000019</t>
-  </si>
-  <si>
-    <t>SF09-02-00000020</t>
-  </si>
-  <si>
-    <t>SF09-02-00000021</t>
-  </si>
-  <si>
-    <t>SF09-02-00000022</t>
-  </si>
-  <si>
-    <t>SF09-02-00000023</t>
-  </si>
-  <si>
-    <t>SF09-02-00000024</t>
-  </si>
-  <si>
-    <t>SF09-02-00000025</t>
-  </si>
-  <si>
-    <t>SF09-02-00000026</t>
-  </si>
-  <si>
-    <t>SF09-02-00000027</t>
-  </si>
-  <si>
-    <t>SF09-02-00000028</t>
-  </si>
-  <si>
-    <t>SF09-02-00000029</t>
-  </si>
-  <si>
-    <t>SF09-02-00000030</t>
-  </si>
-  <si>
-    <t>SF09-02-00000031</t>
-  </si>
-  <si>
-    <t>SF09-02-00000032</t>
-  </si>
-  <si>
-    <t>SF09-02-00000033</t>
-  </si>
-  <si>
-    <t>SF09-02-00000034</t>
-  </si>
-  <si>
-    <t>SF09-02-00000035</t>
-  </si>
-  <si>
-    <t>SF09-02-00000036</t>
-  </si>
-  <si>
-    <t>SF09-02-00000037</t>
-  </si>
-  <si>
-    <t>SF09-02-00000038</t>
-  </si>
-  <si>
     <t>PZ_2.54_1X1P_LH</t>
   </si>
   <si>
@@ -1330,9 +1096,6 @@
     <t>G:\Library\AD_Library\PCB\004-Connector.PcbLib</t>
   </si>
   <si>
-    <t>SF09-01-00000040</t>
-  </si>
-  <si>
     <t>PZ_2.00_2X8P_WH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1364,12 +1127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF09-01-00000041</t>
-  </si>
-  <si>
-    <t>SF09-01-00000042</t>
-  </si>
-  <si>
     <t>PZ_2.00_2X4P_WH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1406,14 +1163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF09-02-00000039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF09-03-00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹簧顶针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1432,6 +1181,252 @@
   <si>
     <t>POGOPING弹簧顶针-ZXS-1191BJ-间距2.54mm-2Pin-卧贴-深圳市元升电子-POGOPING_2.54_2P_WT</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090100000001</t>
+  </si>
+  <si>
+    <t>SF090100000002</t>
+  </si>
+  <si>
+    <t>SF090100000003</t>
+  </si>
+  <si>
+    <t>SF090100000004</t>
+  </si>
+  <si>
+    <t>SF090100000005</t>
+  </si>
+  <si>
+    <t>SF090100000006</t>
+  </si>
+  <si>
+    <t>SF090100000007</t>
+  </si>
+  <si>
+    <t>SF090100000008</t>
+  </si>
+  <si>
+    <t>SF090100000009</t>
+  </si>
+  <si>
+    <t>SF090100000010</t>
+  </si>
+  <si>
+    <t>SF090100000011</t>
+  </si>
+  <si>
+    <t>SF090100000012</t>
+  </si>
+  <si>
+    <t>SF090100000013</t>
+  </si>
+  <si>
+    <t>SF090100000014</t>
+  </si>
+  <si>
+    <t>SF090100000015</t>
+  </si>
+  <si>
+    <t>SF090100000016</t>
+  </si>
+  <si>
+    <t>SF090100000017</t>
+  </si>
+  <si>
+    <t>SF090100000018</t>
+  </si>
+  <si>
+    <t>SF090100000019</t>
+  </si>
+  <si>
+    <t>SF090100000020</t>
+  </si>
+  <si>
+    <t>SF090100000021</t>
+  </si>
+  <si>
+    <t>SF090100000022</t>
+  </si>
+  <si>
+    <t>SF090100000023</t>
+  </si>
+  <si>
+    <t>SF090100000024</t>
+  </si>
+  <si>
+    <t>SF090100000025</t>
+  </si>
+  <si>
+    <t>SF090100000026</t>
+  </si>
+  <si>
+    <t>SF090100000027</t>
+  </si>
+  <si>
+    <t>SF090100000028</t>
+  </si>
+  <si>
+    <t>SF090100000029</t>
+  </si>
+  <si>
+    <t>SF090100000030</t>
+  </si>
+  <si>
+    <t>SF090100000031</t>
+  </si>
+  <si>
+    <t>SF090100000032</t>
+  </si>
+  <si>
+    <t>SF090100000033</t>
+  </si>
+  <si>
+    <t>SF090100000034</t>
+  </si>
+  <si>
+    <t>SF090100000035</t>
+  </si>
+  <si>
+    <t>SF090100000036</t>
+  </si>
+  <si>
+    <t>SF090100000037</t>
+  </si>
+  <si>
+    <t>SF090100000038</t>
+  </si>
+  <si>
+    <t>SF090100000039</t>
+  </si>
+  <si>
+    <t>SF090100000040</t>
+  </si>
+  <si>
+    <t>SF090100000041</t>
+  </si>
+  <si>
+    <t>SF090100000042</t>
+  </si>
+  <si>
+    <t>SF090200000001</t>
+  </si>
+  <si>
+    <t>SF090200000002</t>
+  </si>
+  <si>
+    <t>SF090200000003</t>
+  </si>
+  <si>
+    <t>SF090200000004</t>
+  </si>
+  <si>
+    <t>SF090200000005</t>
+  </si>
+  <si>
+    <t>SF090200000006</t>
+  </si>
+  <si>
+    <t>SF090200000007</t>
+  </si>
+  <si>
+    <t>SF090200000008</t>
+  </si>
+  <si>
+    <t>SF090200000009</t>
+  </si>
+  <si>
+    <t>SF090200000010</t>
+  </si>
+  <si>
+    <t>SF090200000011</t>
+  </si>
+  <si>
+    <t>SF090200000012</t>
+  </si>
+  <si>
+    <t>SF090200000013</t>
+  </si>
+  <si>
+    <t>SF090200000014</t>
+  </si>
+  <si>
+    <t>SF090200000015</t>
+  </si>
+  <si>
+    <t>SF090200000016</t>
+  </si>
+  <si>
+    <t>SF090200000017</t>
+  </si>
+  <si>
+    <t>SF090200000018</t>
+  </si>
+  <si>
+    <t>SF090200000019</t>
+  </si>
+  <si>
+    <t>SF090200000020</t>
+  </si>
+  <si>
+    <t>SF090200000021</t>
+  </si>
+  <si>
+    <t>SF090200000022</t>
+  </si>
+  <si>
+    <t>SF090200000023</t>
+  </si>
+  <si>
+    <t>SF090200000024</t>
+  </si>
+  <si>
+    <t>SF090200000025</t>
+  </si>
+  <si>
+    <t>SF090200000026</t>
+  </si>
+  <si>
+    <t>SF090200000027</t>
+  </si>
+  <si>
+    <t>SF090200000028</t>
+  </si>
+  <si>
+    <t>SF090200000029</t>
+  </si>
+  <si>
+    <t>SF090200000030</t>
+  </si>
+  <si>
+    <t>SF090200000031</t>
+  </si>
+  <si>
+    <t>SF090200000032</t>
+  </si>
+  <si>
+    <t>SF090200000033</t>
+  </si>
+  <si>
+    <t>SF090200000034</t>
+  </si>
+  <si>
+    <t>SF090200000035</t>
+  </si>
+  <si>
+    <t>SF090200000036</t>
+  </si>
+  <si>
+    <t>SF090200000037</t>
+  </si>
+  <si>
+    <t>SF090200000038</t>
+  </si>
+  <si>
+    <t>SF090200000039</t>
+  </si>
+  <si>
+    <t>SF090300000001</t>
   </si>
 </sst>
 </file>
@@ -1808,8 +1803,8 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1896,2203 +1891,2203 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="H8" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="H19" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="H20" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>338</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>63</v>
+        <v>340</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>65</v>
+        <v>342</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>66</v>
+        <v>343</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>67</v>
+        <v>344</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>68</v>
+        <v>345</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>346</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>347</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>348</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>349</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>73</v>
+        <v>350</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>281</v>
+        <v>204</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>386</v>
+        <v>306</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>375</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>388</v>
+        <v>308</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>375</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>374</v>
+        <v>296</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>376</v>
+        <v>298</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>374</v>
+        <v>296</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>375</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="J44" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>104</v>
+        <v>363</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>105</v>
+        <v>364</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>302</v>
+        <v>225</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>303</v>
+        <v>226</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>106</v>
+        <v>365</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>107</v>
+        <v>366</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>306</v>
+        <v>229</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>108</v>
+        <v>367</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>109</v>
+        <v>368</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>110</v>
+        <v>369</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>111</v>
+        <v>370</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>112</v>
+        <v>371</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>113</v>
+        <v>372</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>115</v>
+        <v>374</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>116</v>
+        <v>375</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>117</v>
+        <v>376</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>118</v>
+        <v>377</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>120</v>
+        <v>379</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>121</v>
+        <v>380</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>122</v>
+        <v>381</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>123</v>
+        <v>382</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>124</v>
+        <v>383</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>125</v>
+        <v>384</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>126</v>
+        <v>385</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>127</v>
+        <v>386</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>128</v>
+        <v>387</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>347</v>
+        <v>270</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>129</v>
+        <v>388</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>132</v>
+        <v>391</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>133</v>
+        <v>392</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>357</v>
+        <v>280</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>358</v>
+        <v>281</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>360</v>
+        <v>283</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>135</v>
+        <v>394</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>362</v>
+        <v>285</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>136</v>
+        <v>395</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>363</v>
+        <v>286</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>364</v>
+        <v>287</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>137</v>
+        <v>396</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>138</v>
+        <v>397</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>395</v>
+        <v>313</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>399</v>
+        <v>317</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="T83" s="4" t="s">
-        <v>398</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B419A2A0-6AF0-4CD0-952E-6FA9B14E41D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4EA7DE-2EC2-45E8-967F-ADA67F174C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1108,10 +1108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双排排针-A2005WR-2x8P-间距2.00mm-2X8P-弯插-PZ_2.00_2X8P_WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G:\Library\Datasheet\09_Connector\A2005_CJT_DS_20250331.pdf</t>
   </si>
   <si>
@@ -1143,14 +1139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双排排针-A2005WR-2x5P-间距2.00mm-2X5P-弯插-PZ_2.00_2X5P_WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-A2005WR-2x4P-间距2.00mm-2X4P-弯插-PZ_2.00_2X4P_WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16mmx8.5mmx6.8mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1300,133 +1288,147 @@
     <t>SF090100000039</t>
   </si>
   <si>
+    <t>SF090100000041</t>
+  </si>
+  <si>
+    <t>SF090100000042</t>
+  </si>
+  <si>
+    <t>SF090200000001</t>
+  </si>
+  <si>
+    <t>SF090200000002</t>
+  </si>
+  <si>
+    <t>SF090200000003</t>
+  </si>
+  <si>
+    <t>SF090200000004</t>
+  </si>
+  <si>
+    <t>SF090200000005</t>
+  </si>
+  <si>
+    <t>SF090200000006</t>
+  </si>
+  <si>
+    <t>SF090200000007</t>
+  </si>
+  <si>
+    <t>SF090200000008</t>
+  </si>
+  <si>
+    <t>SF090200000009</t>
+  </si>
+  <si>
+    <t>SF090200000010</t>
+  </si>
+  <si>
+    <t>SF090200000011</t>
+  </si>
+  <si>
+    <t>SF090200000012</t>
+  </si>
+  <si>
+    <t>SF090200000013</t>
+  </si>
+  <si>
+    <t>SF090200000014</t>
+  </si>
+  <si>
+    <t>SF090200000015</t>
+  </si>
+  <si>
+    <t>SF090200000016</t>
+  </si>
+  <si>
+    <t>SF090200000017</t>
+  </si>
+  <si>
+    <t>SF090200000018</t>
+  </si>
+  <si>
+    <t>SF090200000019</t>
+  </si>
+  <si>
+    <t>SF090200000020</t>
+  </si>
+  <si>
+    <t>SF090200000021</t>
+  </si>
+  <si>
+    <t>SF090200000022</t>
+  </si>
+  <si>
+    <t>SF090200000023</t>
+  </si>
+  <si>
+    <t>SF090200000024</t>
+  </si>
+  <si>
+    <t>SF090200000025</t>
+  </si>
+  <si>
+    <t>SF090200000026</t>
+  </si>
+  <si>
+    <t>SF090200000027</t>
+  </si>
+  <si>
+    <t>SF090200000028</t>
+  </si>
+  <si>
+    <t>SF090200000029</t>
+  </si>
+  <si>
+    <t>SF090200000030</t>
+  </si>
+  <si>
+    <t>SF090200000031</t>
+  </si>
+  <si>
+    <t>SF090200000032</t>
+  </si>
+  <si>
+    <t>SF090200000033</t>
+  </si>
+  <si>
+    <t>SF090200000034</t>
+  </si>
+  <si>
+    <t>SF090200000035</t>
+  </si>
+  <si>
+    <t>SF090200000036</t>
+  </si>
+  <si>
+    <t>SF090200000037</t>
+  </si>
+  <si>
+    <t>SF090200000038</t>
+  </si>
+  <si>
+    <t>SF090200000039</t>
+  </si>
+  <si>
+    <t>SF090300000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SF090100000040</t>
-  </si>
-  <si>
-    <t>SF090100000041</t>
-  </si>
-  <si>
-    <t>SF090100000042</t>
-  </si>
-  <si>
-    <t>SF090200000001</t>
-  </si>
-  <si>
-    <t>SF090200000002</t>
-  </si>
-  <si>
-    <t>SF090200000003</t>
-  </si>
-  <si>
-    <t>SF090200000004</t>
-  </si>
-  <si>
-    <t>SF090200000005</t>
-  </si>
-  <si>
-    <t>SF090200000006</t>
-  </si>
-  <si>
-    <t>SF090200000007</t>
-  </si>
-  <si>
-    <t>SF090200000008</t>
-  </si>
-  <si>
-    <t>SF090200000009</t>
-  </si>
-  <si>
-    <t>SF090200000010</t>
-  </si>
-  <si>
-    <t>SF090200000011</t>
-  </si>
-  <si>
-    <t>SF090200000012</t>
-  </si>
-  <si>
-    <t>SF090200000013</t>
-  </si>
-  <si>
-    <t>SF090200000014</t>
-  </si>
-  <si>
-    <t>SF090200000015</t>
-  </si>
-  <si>
-    <t>SF090200000016</t>
-  </si>
-  <si>
-    <t>SF090200000017</t>
-  </si>
-  <si>
-    <t>SF090200000018</t>
-  </si>
-  <si>
-    <t>SF090200000019</t>
-  </si>
-  <si>
-    <t>SF090200000020</t>
-  </si>
-  <si>
-    <t>SF090200000021</t>
-  </si>
-  <si>
-    <t>SF090200000022</t>
-  </si>
-  <si>
-    <t>SF090200000023</t>
-  </si>
-  <si>
-    <t>SF090200000024</t>
-  </si>
-  <si>
-    <t>SF090200000025</t>
-  </si>
-  <si>
-    <t>SF090200000026</t>
-  </si>
-  <si>
-    <t>SF090200000027</t>
-  </si>
-  <si>
-    <t>SF090200000028</t>
-  </si>
-  <si>
-    <t>SF090200000029</t>
-  </si>
-  <si>
-    <t>SF090200000030</t>
-  </si>
-  <si>
-    <t>SF090200000031</t>
-  </si>
-  <si>
-    <t>SF090200000032</t>
-  </si>
-  <si>
-    <t>SF090200000033</t>
-  </si>
-  <si>
-    <t>SF090200000034</t>
-  </si>
-  <si>
-    <t>SF090200000035</t>
-  </si>
-  <si>
-    <t>SF090200000036</t>
-  </si>
-  <si>
-    <t>SF090200000037</t>
-  </si>
-  <si>
-    <t>SF090200000038</t>
-  </si>
-  <si>
-    <t>SF090200000039</t>
-  </si>
-  <si>
-    <t>SF090300000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-A2005WR-2x4P-间距2.00mm-2X4P-弯插- CJT(长江连接器)-PZ_2.00_2X4P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-A2005WR-2x5P-间距2.00mm-2X5P-弯插- CJT(长江连接器)-PZ_2.00_2X5P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-A2005WR-2x8P-间距2.00mm-2X8P-弯插- CJT(长江连接器)-PZ_2.00_2X8P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1802,9 +1804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A83"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1891,7 +1893,7 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
@@ -1917,7 +1919,7 @@
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>21</v>
@@ -1943,7 +1945,7 @@
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -1969,7 +1971,7 @@
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
@@ -1995,7 +1997,7 @@
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
@@ -2021,7 +2023,7 @@
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
@@ -2047,7 +2049,7 @@
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>21</v>
@@ -2073,7 +2075,7 @@
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
@@ -2099,7 +2101,7 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>21</v>
@@ -2125,7 +2127,7 @@
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
@@ -2151,7 +2153,7 @@
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -2177,7 +2179,7 @@
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -2203,7 +2205,7 @@
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -2229,7 +2231,7 @@
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -2255,7 +2257,7 @@
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -2281,7 +2283,7 @@
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -2307,7 +2309,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -2333,7 +2335,7 @@
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -2359,7 +2361,7 @@
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -2385,7 +2387,7 @@
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -2411,7 +2413,7 @@
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -2437,7 +2439,7 @@
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -2463,7 +2465,7 @@
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>21</v>
@@ -2489,7 +2491,7 @@
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>21</v>
@@ -2515,7 +2517,7 @@
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
@@ -2541,7 +2543,7 @@
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>21</v>
@@ -2567,7 +2569,7 @@
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>21</v>
@@ -2593,7 +2595,7 @@
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>21</v>
@@ -2619,7 +2621,7 @@
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>21</v>
@@ -2645,7 +2647,7 @@
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>21</v>
@@ -2671,7 +2673,7 @@
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>21</v>
@@ -2697,7 +2699,7 @@
     </row>
     <row r="33" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>21</v>
@@ -2723,7 +2725,7 @@
     </row>
     <row r="34" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>21</v>
@@ -2749,7 +2751,7 @@
     </row>
     <row r="35" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>21</v>
@@ -2775,7 +2777,7 @@
     </row>
     <row r="36" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>21</v>
@@ -2801,7 +2803,7 @@
     </row>
     <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>21</v>
@@ -2827,7 +2829,7 @@
     </row>
     <row r="38" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>21</v>
@@ -2853,7 +2855,7 @@
     </row>
     <row r="39" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>21</v>
@@ -2879,7 +2881,7 @@
     </row>
     <row r="40" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>21</v>
@@ -2905,19 +2907,19 @@
     </row>
     <row r="41" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>44</v>
@@ -2926,25 +2928,25 @@
         <v>294</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K41" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="P41" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="S41" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>297</v>
@@ -2952,19 +2954,19 @@
     </row>
     <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>45</v>
@@ -2973,25 +2975,25 @@
         <v>294</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K42" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="P42" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="S42" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>297</v>
@@ -2999,7 +3001,7 @@
     </row>
     <row r="43" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>21</v>
@@ -3011,7 +3013,7 @@
         <v>298</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>48</v>
@@ -3026,19 +3028,19 @@
         <v>295</v>
       </c>
       <c r="K43" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="P43" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="S43" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>297</v>
@@ -3046,7 +3048,7 @@
     </row>
     <row r="44" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>61</v>
@@ -3072,7 +3074,7 @@
     </row>
     <row r="45" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>61</v>
@@ -3098,7 +3100,7 @@
     </row>
     <row r="46" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>61</v>
@@ -3124,7 +3126,7 @@
     </row>
     <row r="47" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>61</v>
@@ -3150,7 +3152,7 @@
     </row>
     <row r="48" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>61</v>
@@ -3176,7 +3178,7 @@
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>61</v>
@@ -3202,7 +3204,7 @@
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>61</v>
@@ -3228,7 +3230,7 @@
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>61</v>
@@ -3254,7 +3256,7 @@
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>61</v>
@@ -3280,7 +3282,7 @@
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>61</v>
@@ -3306,7 +3308,7 @@
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>61</v>
@@ -3332,7 +3334,7 @@
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>61</v>
@@ -3358,7 +3360,7 @@
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
@@ -3384,7 +3386,7 @@
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>61</v>
@@ -3410,7 +3412,7 @@
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>61</v>
@@ -3436,7 +3438,7 @@
     </row>
     <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>61</v>
@@ -3462,7 +3464,7 @@
     </row>
     <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>61</v>
@@ -3488,7 +3490,7 @@
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -3514,7 +3516,7 @@
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>61</v>
@@ -3540,7 +3542,7 @@
     </row>
     <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>61</v>
@@ -3566,7 +3568,7 @@
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>61</v>
@@ -3592,7 +3594,7 @@
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>61</v>
@@ -3618,7 +3620,7 @@
     </row>
     <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>61</v>
@@ -3644,7 +3646,7 @@
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>61</v>
@@ -3670,7 +3672,7 @@
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -3696,7 +3698,7 @@
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
@@ -3722,7 +3724,7 @@
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>61</v>
@@ -3748,7 +3750,7 @@
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>61</v>
@@ -3774,7 +3776,7 @@
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>61</v>
@@ -3800,7 +3802,7 @@
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>61</v>
@@ -3826,7 +3828,7 @@
     </row>
     <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
@@ -3852,7 +3854,7 @@
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>61</v>
@@ -3878,7 +3880,7 @@
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>61</v>
@@ -3904,7 +3906,7 @@
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>61</v>
@@ -3930,7 +3932,7 @@
     </row>
     <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>61</v>
@@ -3956,7 +3958,7 @@
     </row>
     <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>61</v>
@@ -3982,7 +3984,7 @@
     </row>
     <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>61</v>
@@ -4008,7 +4010,7 @@
     </row>
     <row r="81" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>61</v>
@@ -4034,7 +4036,7 @@
     </row>
     <row r="82" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>61</v>
@@ -4060,19 +4062,19 @@
     </row>
     <row r="83" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>23</v>
@@ -4081,13 +4083,13 @@
         <v>294</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>295</v>
       </c>
       <c r="T83" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4EA7DE-2EC2-45E8-967F-ADA67F174C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE0D2C-782A-4714-AC02-90379E0CD443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1806,7 +1809,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4093,6 +4096,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE0D2C-782A-4714-AC02-90379E0CD443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD40DE4-D6F1-42AC-955E-9432F68A2622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="414">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,10 +1170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POGOPING弹簧顶针-ZXS-1191BJ-间距2.54mm-2Pin-卧贴-深圳市元升电子-POGOPING_2.54_2P_WT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SF090100000001</t>
   </si>
   <si>
@@ -1431,6 +1427,63 @@
   </si>
   <si>
     <t>双排排针-A2005WR-2x8P-间距2.00mm-2X8P-弯插- CJT(长江连接器)-PZ_2.00_2X8P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3012129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.00_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM200-1-03-Z-4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-PM200-1-03-Z-4.3-间距2.00mm-1X3P-直插-HCTL(华灿天禄)-PM_2.00_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCTL(华灿天禄)</t>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\ZXS-1191BJ-2P-2.54PH-5.5H-SYS-DS-20250401.pdf</t>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\PM200-HCTL-DS-20250402.pdf</t>
+  </si>
+  <si>
+    <t>12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0mm*3.1mm*5.5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POGOPING弹簧顶针-ZXS-1191BJ-间距2.54mm-2Pin-卧贴-使用寿命10000次-深圳市元升电子-POGOPING_2.54_2P_WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0mm*2.4mm*7.1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090200000040</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1805,11 +1858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1896,7 +1949,7 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
@@ -1922,7 +1975,7 @@
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>21</v>
@@ -1948,7 +2001,7 @@
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -1974,7 +2027,7 @@
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
@@ -2000,7 +2053,7 @@
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
@@ -2026,7 +2079,7 @@
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
@@ -2052,7 +2105,7 @@
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>21</v>
@@ -2078,7 +2131,7 @@
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
@@ -2104,7 +2157,7 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>21</v>
@@ -2130,7 +2183,7 @@
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
@@ -2156,7 +2209,7 @@
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -2182,7 +2235,7 @@
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -2208,7 +2261,7 @@
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -2234,7 +2287,7 @@
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -2260,7 +2313,7 @@
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -2286,7 +2339,7 @@
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -2312,7 +2365,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -2338,7 +2391,7 @@
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -2364,7 +2417,7 @@
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -2390,7 +2443,7 @@
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -2416,7 +2469,7 @@
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -2442,7 +2495,7 @@
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -2468,7 +2521,7 @@
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>21</v>
@@ -2494,7 +2547,7 @@
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>21</v>
@@ -2520,7 +2573,7 @@
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
@@ -2546,7 +2599,7 @@
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>21</v>
@@ -2572,7 +2625,7 @@
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>21</v>
@@ -2598,7 +2651,7 @@
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>21</v>
@@ -2624,7 +2677,7 @@
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>21</v>
@@ -2650,7 +2703,7 @@
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>21</v>
@@ -2676,7 +2729,7 @@
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>21</v>
@@ -2702,7 +2755,7 @@
     </row>
     <row r="33" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>21</v>
@@ -2728,7 +2781,7 @@
     </row>
     <row r="34" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>21</v>
@@ -2754,7 +2807,7 @@
     </row>
     <row r="35" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>21</v>
@@ -2780,7 +2833,7 @@
     </row>
     <row r="36" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>21</v>
@@ -2806,7 +2859,7 @@
     </row>
     <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>21</v>
@@ -2832,7 +2885,7 @@
     </row>
     <row r="38" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>21</v>
@@ -2858,7 +2911,7 @@
     </row>
     <row r="39" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>21</v>
@@ -2884,7 +2937,7 @@
     </row>
     <row r="40" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>21</v>
@@ -2910,7 +2963,7 @@
     </row>
     <row r="41" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>21</v>
@@ -2922,7 +2975,7 @@
         <v>305</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>44</v>
@@ -2957,7 +3010,7 @@
     </row>
     <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>21</v>
@@ -2969,7 +3022,7 @@
         <v>306</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>45</v>
@@ -3004,7 +3057,7 @@
     </row>
     <row r="43" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>21</v>
@@ -3016,7 +3069,7 @@
         <v>298</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>48</v>
@@ -3051,7 +3104,7 @@
     </row>
     <row r="44" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>61</v>
@@ -3077,7 +3130,7 @@
     </row>
     <row r="45" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>61</v>
@@ -3103,7 +3156,7 @@
     </row>
     <row r="46" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>61</v>
@@ -3129,7 +3182,7 @@
     </row>
     <row r="47" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>61</v>
@@ -3155,7 +3208,7 @@
     </row>
     <row r="48" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>61</v>
@@ -3181,7 +3234,7 @@
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>61</v>
@@ -3207,7 +3260,7 @@
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>61</v>
@@ -3233,7 +3286,7 @@
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>61</v>
@@ -3259,7 +3312,7 @@
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>61</v>
@@ -3285,7 +3338,7 @@
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>61</v>
@@ -3311,7 +3364,7 @@
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>61</v>
@@ -3337,7 +3390,7 @@
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>61</v>
@@ -3363,7 +3416,7 @@
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
@@ -3389,7 +3442,7 @@
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>61</v>
@@ -3415,7 +3468,7 @@
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>61</v>
@@ -3441,7 +3494,7 @@
     </row>
     <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>61</v>
@@ -3467,7 +3520,7 @@
     </row>
     <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>61</v>
@@ -3493,7 +3546,7 @@
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -3519,7 +3572,7 @@
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>61</v>
@@ -3545,7 +3598,7 @@
     </row>
     <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>61</v>
@@ -3571,7 +3624,7 @@
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>61</v>
@@ -3597,7 +3650,7 @@
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>61</v>
@@ -3623,7 +3676,7 @@
     </row>
     <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>61</v>
@@ -3649,7 +3702,7 @@
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>61</v>
@@ -3675,7 +3728,7 @@
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -3701,7 +3754,7 @@
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
@@ -3727,7 +3780,7 @@
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>61</v>
@@ -3753,7 +3806,7 @@
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>61</v>
@@ -3779,7 +3832,7 @@
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>61</v>
@@ -3805,7 +3858,7 @@
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>61</v>
@@ -3831,7 +3884,7 @@
     </row>
     <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
@@ -3857,7 +3910,7 @@
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>61</v>
@@ -3883,7 +3936,7 @@
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>61</v>
@@ -3909,7 +3962,7 @@
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>61</v>
@@ -3935,7 +3988,7 @@
     </row>
     <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>61</v>
@@ -3961,7 +4014,7 @@
     </row>
     <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>61</v>
@@ -3987,7 +4040,7 @@
     </row>
     <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>61</v>
@@ -4013,7 +4066,7 @@
     </row>
     <row r="81" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>61</v>
@@ -4039,7 +4092,7 @@
     </row>
     <row r="82" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>61</v>
@@ -4065,33 +4118,95 @@
     </row>
     <row r="83" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>395</v>
+        <v>413</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G83" s="4" t="s">
+      <c r="F84" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H83" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="H84" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="J83" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="T83" s="4" t="s">
+      <c r="J84" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="S84" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="T84" s="4" t="s">
         <v>313</v>
       </c>
     </row>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD40DE4-D6F1-42AC-955E-9432F68A2622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ECD453-980B-43AB-B12B-C28E0825CBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3530" yWindow="5730" windowWidth="24670" windowHeight="14690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1449,12 +1449,6 @@
     <t>HCTL(华灿天禄)</t>
   </si>
   <si>
-    <t>G:\Library\Datasheet\09_Connector\ZXS-1191BJ-2P-2.54PH-5.5H-SYS-DS-20250401.pdf</t>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\09_Connector\PM200-HCTL-DS-20250402.pdf</t>
-  </si>
-  <si>
     <t>12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1485,6 +1479,12 @@
   <si>
     <t>SF090200000040</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\ZXS-1191BJ-2P-2.54PH-5.5H_SYS_DS_20250401.pdf</t>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\PM200_HCTL_DS_20250402.pdf</t>
   </si>
 </sst>
 </file>
@@ -1860,9 +1860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="83" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>399</v>
@@ -4148,19 +4148,19 @@
         <v>295</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>300</v>
       </c>
       <c r="S83" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T83" s="4" t="s">
         <v>403</v>
@@ -4180,7 +4180,7 @@
         <v>312</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>23</v>
@@ -4195,16 +4195,16 @@
         <v>295</v>
       </c>
       <c r="K84" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="M84" s="4" t="s">
+      <c r="N84" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="S84" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="N84" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="S84" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="T84" s="4" t="s">
         <v>313</v>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ECD453-980B-43AB-B12B-C28E0825CBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFC04C-6B70-45E9-9ACF-D55D1F9C2767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3530" yWindow="5730" windowWidth="24670" windowHeight="14690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1862,7 +1862,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P83" sqref="P83"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1876,8 +1876,7 @@
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
     <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFC04C-6B70-45E9-9ACF-D55D1F9C2767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC54491-1F7A-41B5-BFE7-FA3F41988493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1558,7 +1558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,6 +1577,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1860,9 +1866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1870,7 +1876,7 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
@@ -1897,7 +1903,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1956,7 +1962,7 @@
       <c r="D2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>142</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1982,7 +1988,7 @@
       <c r="D3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>144</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2008,7 +2014,7 @@
       <c r="D4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>146</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2034,7 +2040,7 @@
       <c r="D5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>148</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2060,7 +2066,7 @@
       <c r="D6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2086,7 +2092,7 @@
       <c r="D7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>152</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2112,7 +2118,7 @@
       <c r="D8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>154</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2138,7 +2144,7 @@
       <c r="D9" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>156</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2164,7 +2170,7 @@
       <c r="D10" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>158</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -2190,7 +2196,7 @@
       <c r="D11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -2216,7 +2222,7 @@
       <c r="D12" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="8" t="s">
         <v>162</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2242,7 +2248,7 @@
       <c r="D13" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>164</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2268,7 +2274,7 @@
       <c r="D14" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>166</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -2294,7 +2300,7 @@
       <c r="D15" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="8" t="s">
         <v>168</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2320,7 +2326,7 @@
       <c r="D16" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>170</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2346,7 +2352,7 @@
       <c r="D17" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="8" t="s">
         <v>172</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2372,7 +2378,7 @@
       <c r="D18" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>174</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2398,7 +2404,7 @@
       <c r="D19" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="8" t="s">
         <v>176</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2424,7 +2430,7 @@
       <c r="D20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="8" t="s">
         <v>178</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -2450,7 +2456,7 @@
       <c r="D21" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="8" t="s">
         <v>180</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -2476,7 +2482,7 @@
       <c r="D22" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="8" t="s">
         <v>181</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -2502,7 +2508,7 @@
       <c r="D23" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="8" t="s">
         <v>183</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -2528,7 +2534,7 @@
       <c r="D24" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="8" t="s">
         <v>185</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -2554,7 +2560,7 @@
       <c r="D25" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="8" t="s">
         <v>187</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -2580,7 +2586,7 @@
       <c r="D26" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="8" t="s">
         <v>190</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -2606,7 +2612,7 @@
       <c r="D27" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="8" t="s">
         <v>191</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -2632,7 +2638,7 @@
       <c r="D28" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="8" t="s">
         <v>194</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -2658,7 +2664,7 @@
       <c r="D29" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="8" t="s">
         <v>195</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -2684,7 +2690,7 @@
       <c r="D30" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -2710,7 +2716,7 @@
       <c r="D31" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="8" t="s">
         <v>199</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -2736,7 +2742,7 @@
       <c r="D32" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="8" t="s">
         <v>201</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -2762,7 +2768,7 @@
       <c r="D33" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="8" t="s">
         <v>203</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -2788,7 +2794,7 @@
       <c r="D34" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="8" t="s">
         <v>205</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -2814,7 +2820,7 @@
       <c r="D35" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="8" t="s">
         <v>207</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -2840,7 +2846,7 @@
       <c r="D36" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="8" t="s">
         <v>209</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -2866,7 +2872,7 @@
       <c r="D37" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="8" t="s">
         <v>211</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -2892,7 +2898,7 @@
       <c r="D38" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="8" t="s">
         <v>213</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -2918,7 +2924,7 @@
       <c r="D39" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="8" t="s">
         <v>215</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -2944,7 +2950,7 @@
       <c r="D40" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="8" t="s">
         <v>217</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -2973,7 +2979,7 @@
       <c r="E41" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="8" t="s">
         <v>396</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -3020,7 +3026,7 @@
       <c r="E42" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="8" t="s">
         <v>397</v>
       </c>
       <c r="G42" s="4" t="s">
@@ -3067,7 +3073,7 @@
       <c r="E43" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="8" t="s">
         <v>398</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -3111,7 +3117,7 @@
       <c r="D44" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="8" t="s">
         <v>218</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -3137,7 +3143,7 @@
       <c r="D45" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="8" t="s">
         <v>220</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -3163,7 +3169,7 @@
       <c r="D46" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="8" t="s">
         <v>222</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -3189,7 +3195,7 @@
       <c r="D47" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="8" t="s">
         <v>224</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -3215,7 +3221,7 @@
       <c r="D48" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="8" t="s">
         <v>226</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -3241,7 +3247,7 @@
       <c r="D49" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="8" t="s">
         <v>228</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -3267,7 +3273,7 @@
       <c r="D50" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="8" t="s">
         <v>230</v>
       </c>
       <c r="G50" s="4" t="s">
@@ -3293,7 +3299,7 @@
       <c r="D51" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="8" t="s">
         <v>232</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -3319,7 +3325,7 @@
       <c r="D52" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="8" t="s">
         <v>234</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -3345,7 +3351,7 @@
       <c r="D53" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="8" t="s">
         <v>236</v>
       </c>
       <c r="G53" s="4" t="s">
@@ -3371,7 +3377,7 @@
       <c r="D54" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="8" t="s">
         <v>238</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -3397,7 +3403,7 @@
       <c r="D55" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="8" t="s">
         <v>240</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -3423,7 +3429,7 @@
       <c r="D56" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="8" t="s">
         <v>242</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -3449,7 +3455,7 @@
       <c r="D57" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="8" t="s">
         <v>244</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -3475,7 +3481,7 @@
       <c r="D58" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="8" t="s">
         <v>246</v>
       </c>
       <c r="G58" s="4" t="s">
@@ -3501,7 +3507,7 @@
       <c r="D59" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="8" t="s">
         <v>248</v>
       </c>
       <c r="G59" s="4" t="s">
@@ -3527,7 +3533,7 @@
       <c r="D60" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="8" t="s">
         <v>250</v>
       </c>
       <c r="G60" s="4" t="s">
@@ -3553,7 +3559,7 @@
       <c r="D61" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="8" t="s">
         <v>252</v>
       </c>
       <c r="G61" s="4" t="s">
@@ -3579,7 +3585,7 @@
       <c r="D62" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="8" t="s">
         <v>254</v>
       </c>
       <c r="G62" s="4" t="s">
@@ -3605,7 +3611,7 @@
       <c r="D63" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="8" t="s">
         <v>256</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -3631,7 +3637,7 @@
       <c r="D64" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="8" t="s">
         <v>257</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -3657,7 +3663,7 @@
       <c r="D65" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="8" t="s">
         <v>259</v>
       </c>
       <c r="G65" s="4" t="s">
@@ -3683,7 +3689,7 @@
       <c r="D66" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="8" t="s">
         <v>261</v>
       </c>
       <c r="G66" s="4" t="s">
@@ -3709,7 +3715,7 @@
       <c r="D67" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="8" t="s">
         <v>263</v>
       </c>
       <c r="G67" s="4" t="s">
@@ -3735,7 +3741,7 @@
       <c r="D68" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="8" t="s">
         <v>265</v>
       </c>
       <c r="G68" s="4" t="s">
@@ -3761,7 +3767,7 @@
       <c r="D69" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="8" t="s">
         <v>267</v>
       </c>
       <c r="G69" s="4" t="s">
@@ -3787,7 +3793,7 @@
       <c r="D70" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="8" t="s">
         <v>269</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -3813,7 +3819,7 @@
       <c r="D71" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="8" t="s">
         <v>271</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -3839,7 +3845,7 @@
       <c r="D72" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="8" t="s">
         <v>273</v>
       </c>
       <c r="G72" s="4" t="s">
@@ -3865,7 +3871,7 @@
       <c r="D73" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="8" t="s">
         <v>275</v>
       </c>
       <c r="G73" s="4" t="s">
@@ -3891,7 +3897,7 @@
       <c r="D74" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="8" t="s">
         <v>277</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -3917,7 +3923,7 @@
       <c r="D75" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="8" t="s">
         <v>279</v>
       </c>
       <c r="G75" s="4" t="s">
@@ -3943,7 +3949,7 @@
       <c r="D76" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="8" t="s">
         <v>281</v>
       </c>
       <c r="G76" s="4" t="s">
@@ -3969,7 +3975,7 @@
       <c r="D77" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="8" t="s">
         <v>283</v>
       </c>
       <c r="G77" s="4" t="s">
@@ -3995,7 +4001,7 @@
       <c r="D78" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="8" t="s">
         <v>285</v>
       </c>
       <c r="G78" s="4" t="s">
@@ -4021,7 +4027,7 @@
       <c r="D79" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="8" t="s">
         <v>287</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -4047,7 +4053,7 @@
       <c r="D80" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="8" t="s">
         <v>289</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -4073,7 +4079,7 @@
       <c r="D81" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="8" t="s">
         <v>291</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -4099,7 +4105,7 @@
       <c r="D82" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="8" t="s">
         <v>293</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -4131,7 +4137,7 @@
       <c r="E83" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="8" t="s">
         <v>402</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -4178,7 +4184,7 @@
       <c r="E84" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="8" t="s">
         <v>407</v>
       </c>
       <c r="G84" s="4" t="s">

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC54491-1F7A-41B5-BFE7-FA3F41988493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59579E4D-2DA3-407F-9C38-3A7D83AECC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="420">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1485,6 +1485,30 @@
   </si>
   <si>
     <t>G:\Library\Datasheet\09_Connector\PM200_HCTL_DS_20250402.pdf</t>
+  </si>
+  <si>
+    <t>SF090200000041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.00_2X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2005HWV-2x4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5822052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-A2005HWV-2x4P-间距2.00mm-2X4P-直插- CJT(长江连接器)-PM_2.00_2X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6mm*4.5mm*6.4mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1864,11 +1888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4173,45 +4197,95 @@
     </row>
     <row r="84" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="S84" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="T84" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G85" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H84" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="H85" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="J84" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K84" s="5" t="s">
+      <c r="J85" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K85" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="M84" s="4" t="s">
+      <c r="M85" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="N85" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="S84" s="4" t="s">
+      <c r="S85" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="T84" s="4" t="s">
+      <c r="T85" s="4" t="s">
         <v>313</v>
       </c>
     </row>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59579E4D-2DA3-407F-9C38-3A7D83AECC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B242BB-C833-4DE1-B6E8-A70BAA14117A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="431">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1508,6 +1508,49 @@
   </si>
   <si>
     <t>8.6mm*4.5mm*6.4mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090400000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C668624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE-C 16P(073)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_C_16P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-25℃~+85℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.94mm*7.65mm*4.16mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOU HAN(首韩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\TYPE-C 16P(073)_SHOU-HAN_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>TYPE_C_16P_WH_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接器-TYPE_C-TYPE-C 16P(073)-尺寸=8.94mm*7.65mm*4.16mm-使用寿命=10000次-母座-16P-卧插-SHOUHAN(首韩)-TYPE_C_16P_WT_M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1888,11 +1931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U85"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4289,6 +4332,50 @@
         <v>313</v>
       </c>
     </row>
+    <row r="86" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="S86" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="T86" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B242BB-C833-4DE1-B6E8-A70BAA14117A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E99EC-2460-4D3E-893A-E77D23F0F140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="448">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Device size(LxWxH/mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1142,18 +1138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16mmx8.5mmx6.8mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8mmx8.5mmx6.8mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10mmx8.5mmx6.8mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹簧顶针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1290,267 +1274,346 @@
     <t>SF090100000041</t>
   </si>
   <si>
+    <t>SF090200000001</t>
+  </si>
+  <si>
+    <t>SF090200000002</t>
+  </si>
+  <si>
+    <t>SF090200000003</t>
+  </si>
+  <si>
+    <t>SF090200000004</t>
+  </si>
+  <si>
+    <t>SF090200000005</t>
+  </si>
+  <si>
+    <t>SF090200000006</t>
+  </si>
+  <si>
+    <t>SF090200000007</t>
+  </si>
+  <si>
+    <t>SF090200000008</t>
+  </si>
+  <si>
+    <t>SF090200000009</t>
+  </si>
+  <si>
+    <t>SF090200000010</t>
+  </si>
+  <si>
+    <t>SF090200000011</t>
+  </si>
+  <si>
+    <t>SF090200000012</t>
+  </si>
+  <si>
+    <t>SF090200000013</t>
+  </si>
+  <si>
+    <t>SF090200000014</t>
+  </si>
+  <si>
+    <t>SF090200000015</t>
+  </si>
+  <si>
+    <t>SF090200000016</t>
+  </si>
+  <si>
+    <t>SF090200000017</t>
+  </si>
+  <si>
+    <t>SF090200000018</t>
+  </si>
+  <si>
+    <t>SF090200000019</t>
+  </si>
+  <si>
+    <t>SF090200000020</t>
+  </si>
+  <si>
+    <t>SF090200000021</t>
+  </si>
+  <si>
+    <t>SF090200000022</t>
+  </si>
+  <si>
+    <t>SF090200000023</t>
+  </si>
+  <si>
+    <t>SF090200000024</t>
+  </si>
+  <si>
+    <t>SF090200000025</t>
+  </si>
+  <si>
+    <t>SF090200000026</t>
+  </si>
+  <si>
+    <t>SF090200000027</t>
+  </si>
+  <si>
+    <t>SF090200000028</t>
+  </si>
+  <si>
+    <t>SF090200000029</t>
+  </si>
+  <si>
+    <t>SF090200000030</t>
+  </si>
+  <si>
+    <t>SF090200000031</t>
+  </si>
+  <si>
+    <t>SF090200000032</t>
+  </si>
+  <si>
+    <t>SF090200000033</t>
+  </si>
+  <si>
+    <t>SF090200000034</t>
+  </si>
+  <si>
+    <t>SF090200000035</t>
+  </si>
+  <si>
+    <t>SF090200000036</t>
+  </si>
+  <si>
+    <t>SF090200000037</t>
+  </si>
+  <si>
+    <t>SF090200000038</t>
+  </si>
+  <si>
+    <t>SF090200000039</t>
+  </si>
+  <si>
+    <t>SF090300000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090100000040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-A2005WR-2x4P-间距2.00mm-2X4P-弯插- CJT(长江连接器)-PZ_2.00_2X4P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-A2005WR-2x5P-间距2.00mm-2X5P-弯插- CJT(长江连接器)-PZ_2.00_2X5P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-A2005WR-2x8P-间距2.00mm-2X8P-弯插- CJT(长江连接器)-PZ_2.00_2X8P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3012129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.00_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM200-1-03-Z-4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排母-PM200-1-03-Z-4.3-间距2.00mm-1X3P-直插-HCTL(华灿天禄)-PM_2.00_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCTL(华灿天禄)</t>
+  </si>
+  <si>
+    <t>12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0mm*3.1mm*5.5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POGOPING弹簧顶针-ZXS-1191BJ-间距2.54mm-2Pin-卧贴-使用寿命10000次-深圳市元升电子-POGOPING_2.54_2P_WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0mm*2.4mm*7.1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090200000040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\ZXS-1191BJ-2P-2.54PH-5.5H_SYS_DS_20250401.pdf</t>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\PM200_HCTL_DS_20250402.pdf</t>
+  </si>
+  <si>
+    <t>SF090200000041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.00_2X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2005HWV-2x4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5822052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-A2005HWV-2x4P-间距2.00mm-2X4P-直插- CJT(长江连接器)-PM_2.00_2X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6mm*4.5mm*6.4mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090400000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C668624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE-C 16P(073)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_C_16P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-25℃~+85℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.94mm*7.65mm*4.16mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOU HAN(首韩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\TYPE-C 16P(073)_SHOU-HAN_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>TYPE_C_16P_WH_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SF090100000042</t>
-  </si>
-  <si>
-    <t>SF090200000001</t>
-  </si>
-  <si>
-    <t>SF090200000002</t>
-  </si>
-  <si>
-    <t>SF090200000003</t>
-  </si>
-  <si>
-    <t>SF090200000004</t>
-  </si>
-  <si>
-    <t>SF090200000005</t>
-  </si>
-  <si>
-    <t>SF090200000006</t>
-  </si>
-  <si>
-    <t>SF090200000007</t>
-  </si>
-  <si>
-    <t>SF090200000008</t>
-  </si>
-  <si>
-    <t>SF090200000009</t>
-  </si>
-  <si>
-    <t>SF090200000010</t>
-  </si>
-  <si>
-    <t>SF090200000011</t>
-  </si>
-  <si>
-    <t>SF090200000012</t>
-  </si>
-  <si>
-    <t>SF090200000013</t>
-  </si>
-  <si>
-    <t>SF090200000014</t>
-  </si>
-  <si>
-    <t>SF090200000015</t>
-  </si>
-  <si>
-    <t>SF090200000016</t>
-  </si>
-  <si>
-    <t>SF090200000017</t>
-  </si>
-  <si>
-    <t>SF090200000018</t>
-  </si>
-  <si>
-    <t>SF090200000019</t>
-  </si>
-  <si>
-    <t>SF090200000020</t>
-  </si>
-  <si>
-    <t>SF090200000021</t>
-  </si>
-  <si>
-    <t>SF090200000022</t>
-  </si>
-  <si>
-    <t>SF090200000023</t>
-  </si>
-  <si>
-    <t>SF090200000024</t>
-  </si>
-  <si>
-    <t>SF090200000025</t>
-  </si>
-  <si>
-    <t>SF090200000026</t>
-  </si>
-  <si>
-    <t>SF090200000027</t>
-  </si>
-  <si>
-    <t>SF090200000028</t>
-  </si>
-  <si>
-    <t>SF090200000029</t>
-  </si>
-  <si>
-    <t>SF090200000030</t>
-  </si>
-  <si>
-    <t>SF090200000031</t>
-  </si>
-  <si>
-    <t>SF090200000032</t>
-  </si>
-  <si>
-    <t>SF090200000033</t>
-  </si>
-  <si>
-    <t>SF090200000034</t>
-  </si>
-  <si>
-    <t>SF090200000035</t>
-  </si>
-  <si>
-    <t>SF090200000036</t>
-  </si>
-  <si>
-    <t>SF090200000037</t>
-  </si>
-  <si>
-    <t>SF090200000038</t>
-  </si>
-  <si>
-    <t>SF090200000039</t>
-  </si>
-  <si>
-    <t>SF090300000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF090100000040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-A2005WR-2x4P-间距2.00mm-2X4P-弯插- CJT(长江连接器)-PZ_2.00_2X4P_WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-A2005WR-2x5P-间距2.00mm-2X5P-弯插- CJT(长江连接器)-PZ_2.00_2X5P_WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排针-A2005WR-2x8P-间距2.00mm-2X8P-弯插- CJT(长江连接器)-PZ_2.00_2X8P_WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3012129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.00_1X3P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM200-1-03-Z-4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单排排母-PM200-1-03-Z-4.3-间距2.00mm-1X3P-直插-HCTL(华灿天禄)-PM_2.00_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090100000043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ_2.00_2X3P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZ200-2-03-W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针-PZ200-2-03-W-2x3P-间距2.00mm-2X3P-弯插- HCTL(华灿天禄)-PZ_2.00_2X3P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接器-TYPE_C-TYPE-C 16P(073)-尺寸=8.94mm*7.65mm*4.16mm-使用寿命=10000次-母座-16P-卧插-SHOUHAN(首韩)-TYPE_C_16P_WH_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\PZ200_HCTL_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>Device size(L*W*H/mm)</t>
+  </si>
+  <si>
+    <t>8mm*8.5mm*6.8mm</t>
+  </si>
+  <si>
+    <t>10mm*8.5mm*6.8mm</t>
+  </si>
+  <si>
+    <t>16mm*8.5mm*6.8mm</t>
+  </si>
+  <si>
+    <t>6mm*9.4mm*6.8mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HCTL(华灿天禄)</t>
-  </si>
-  <si>
-    <t>12V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.0mm*3.1mm*5.5mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POGOPING弹簧顶针-ZXS-1191BJ-间距2.54mm-2Pin-卧贴-使用寿命10000次-深圳市元升电子-POGOPING_2.54_2P_WT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.0mm*2.4mm*7.1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF090200000040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\09_Connector\ZXS-1191BJ-2P-2.54PH-5.5H_SYS_DS_20250401.pdf</t>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\09_Connector\PM200_HCTL_DS_20250402.pdf</t>
-  </si>
-  <si>
-    <t>SF090200000041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM_2.00_2X4P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2005HWV-2x4P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5822052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双排排母-A2005HWV-2x4P-间距2.00mm-2X4P-直插- CJT(长江连接器)-PM_2.00_2X4P_LH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.6mm*4.5mm*6.4mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF090400000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB连接器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C668624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE-C 16P(073)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE_C_16P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-25℃~+85℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.94mm*7.65mm*4.16mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHOU HAN(首韩)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\09_Connector\TYPE-C 16P(073)_SHOU-HAN_DS_20250403.pdf</t>
-  </si>
-  <si>
-    <t>TYPE_C_16P_WH_M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB连接器-TYPE_C-TYPE-C 16P(073)-尺寸=8.94mm*7.65mm*4.16mm-使用寿命=10000次-母座-16P-卧插-SHOUHAN(首韩)-TYPE_C_16P_WT_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090500000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH连接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_2.00_1X2P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDGC2001WR-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH连接器-HDGC2001WR-2P-间距2.00mm-1X2P-弯插-HDGC(华德共创)-PH_2.00_1X2P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5175239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\HDGC2001WR_HDGC_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0mm*4.7mm*6.9mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDGC(华德共创)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1931,11 +1994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U86"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U88" sqref="U88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2010,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>6</v>
@@ -2021,2359 +2084,2456 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>194</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="G30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="G33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="G35" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="G37" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="G38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="G39" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="G40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K41" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P41" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="S41" s="4" t="s">
-        <v>308</v>
+        <v>433</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K42" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P42" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="S42" s="4" t="s">
-        <v>309</v>
+        <v>434</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="T43" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>355</v>
+        <v>426</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>102</v>
+        <v>427</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>218</v>
+        <v>429</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>101</v>
+        <v>427</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>258</v>
+        <v>122</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>401</v>
+        <v>291</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>402</v>
+        <v>292</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="P83" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="S83" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="T83" s="4" t="s">
-        <v>403</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K84" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="P84" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="M84" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="N84" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="P84" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="S84" s="4" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="T84" s="4" t="s">
-        <v>297</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>394</v>
+        <v>409</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>311</v>
+        <v>410</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>311</v>
+        <v>410</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>404</v>
+        <v>300</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>405</v>
+        <v>301</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="S85" s="4" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="T85" s="4" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="S86" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="T86" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="P87" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="S87" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="T87" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="P86" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="S86" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="T86" s="4" t="s">
-        <v>427</v>
+    </row>
+    <row r="88" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E99EC-2460-4D3E-893A-E77D23F0F140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674C5FA0-5C21-4CC2-BD1B-9BA8843A980E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="456">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1614,6 +1614,37 @@
   </si>
   <si>
     <t>HDGC(华德共创)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090200000042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2925566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_2.00_2X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM200V-12-16-H43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-PM200V-12-16-H43-间距2.00mm-2X8P-直插- XFC(N兴飞)-PM_2.00_2X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\PM200V-12-xx-H43_XFCN_DS_20250406.pdf</t>
+  </si>
+  <si>
+    <t>16.6mm*4.5mm*7.1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XFCN(兴飞)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1994,11 +2025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U88"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U88" sqref="U88"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S86" sqref="S86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4400,139 +4431,189 @@
     </row>
     <row r="86" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>389</v>
+        <v>448</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>306</v>
+        <v>60</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>307</v>
+        <v>450</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>308</v>
+        <v>451</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>307</v>
+        <v>450</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>400</v>
+        <v>301</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>309</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>418</v>
+        <v>307</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>418</v>
+        <v>308</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>419</v>
+        <v>22</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>424</v>
+        <v>307</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="P87" s="6" t="s">
-        <v>420</v>
+        <v>407</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="S87" s="4" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="T87" s="4" t="s">
-        <v>422</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>22</v>
+        <v>419</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>420</v>
       </c>
       <c r="S88" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="S89" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="T88" s="4" t="s">
+      <c r="T89" s="4" t="s">
         <v>447</v>
       </c>
     </row>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674C5FA0-5C21-4CC2-BD1B-9BA8843A980E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CBF4A9-1510-4661-A5BC-E513C3FB8A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="460">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1645,6 +1645,22 @@
   </si>
   <si>
     <t>XFCN(兴飞)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090200000043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3012172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM200-2-08-Z-4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-PM200-2-08-Z-4.3-间距2.00mm-2X8P-直插- HCTL(华灿天禄)-PM_2.00_2X8P_LH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2025,11 +2041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U89"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S86" sqref="S86"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4481,139 +4497,189 @@
     </row>
     <row r="87" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>389</v>
+        <v>456</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>306</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>307</v>
+        <v>450</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>308</v>
+        <v>458</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>307</v>
+        <v>450</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>400</v>
+        <v>404</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="S87" s="4" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="T87" s="4" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>418</v>
+        <v>307</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>418</v>
+        <v>308</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>419</v>
+        <v>22</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>424</v>
+        <v>307</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="P88" s="6" t="s">
-        <v>420</v>
+        <v>407</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="S88" s="4" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>422</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>22</v>
+        <v>419</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>420</v>
       </c>
       <c r="S89" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="T89" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="S90" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="T89" s="4" t="s">
+      <c r="T90" s="4" t="s">
         <v>447</v>
       </c>
     </row>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CBF4A9-1510-4661-A5BC-E513C3FB8A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F7CDA0-0677-44E4-8517-40D1F6E2A550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="464">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1661,6 +1661,22 @@
   </si>
   <si>
     <t>双排排母-PM200-2-08-Z-4.3-间距2.00mm-2X8P-直插- HCTL(华灿天禄)-PM_2.00_2X8P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090200000044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2906072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM200-2-04-Z-4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排母-PM200-2-04-Z-4.3-间距2.00mm-2X4P-直插- HCTL(华灿天禄)-PM_2.00_2X4P_LH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2041,11 +2057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4547,139 +4563,189 @@
     </row>
     <row r="88" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>389</v>
+        <v>460</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>306</v>
+        <v>60</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>307</v>
+        <v>410</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>308</v>
+        <v>462</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>307</v>
+        <v>410</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>400</v>
+        <v>404</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="S88" s="4" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>418</v>
+        <v>307</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>418</v>
+        <v>308</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>419</v>
+        <v>22</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>424</v>
+        <v>307</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="P89" s="6" t="s">
-        <v>420</v>
+        <v>407</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>422</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>22</v>
+        <v>419</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="N90" s="4" t="s">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="P90" s="6" t="s">
         <v>420</v>
       </c>
       <c r="S90" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="T90" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="S91" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="T90" s="4" t="s">
+      <c r="T91" s="4" t="s">
         <v>447</v>
       </c>
     </row>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F7CDA0-0677-44E4-8517-40D1F6E2A550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCDF08D-1981-4905-A1EC-8CCA0CF65BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="468">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1677,6 +1677,21 @@
   </si>
   <si>
     <t>双排排母-PM200-2-04-Z-4.3-间距2.00mm-2X4P-直插- HCTL(华灿天禄)-PM_2.00_2X4P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2906009</t>
+  </si>
+  <si>
+    <t>C225296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C225297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C225300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2059,9 +2074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3163,6 +3178,9 @@
       <c r="A41" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="B41" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="C41" s="4" t="s">
         <v>20</v>
       </c>
@@ -3210,6 +3228,9 @@
       <c r="A42" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="B42" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="C42" s="4" t="s">
         <v>20</v>
       </c>
@@ -3257,6 +3278,9 @@
       <c r="A43" s="4" t="s">
         <v>425</v>
       </c>
+      <c r="B43" s="4" t="s">
+        <v>467</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>20</v>
       </c>
@@ -3303,6 +3327,9 @@
     <row r="44" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>426</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>20</v>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCDF08D-1981-4905-A1EC-8CCA0CF65BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6274B1E3-C171-4213-9D24-6CF36510117C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="479">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1692,6 +1692,48 @@
   </si>
   <si>
     <t>C225300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090400000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3151747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE-C 16PLC-H10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_C_16P_LH_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40℃~+85℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5mm*3.8mm*12.0mm</t>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\TYPE-C 16PLC-H10.0_SHOU-HAN_DS_20250409.pdf</t>
+  </si>
+  <si>
+    <t>20V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接器-TYPE_C-TYPE-C 16PLC-H10.0-尺寸=9.5mm*3.8mm*12.0mm-使用寿命=10000次-母座-16P-直插-SHOUHAN(首韩)-TYPE_C_16P_LH_M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2072,11 +2114,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4716,6 +4758,12 @@
       <c r="K90" s="5" t="s">
         <v>423</v>
       </c>
+      <c r="M90" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>476</v>
+      </c>
       <c r="P90" s="6" t="s">
         <v>420</v>
       </c>
@@ -4728,51 +4776,101 @@
     </row>
     <row r="91" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="S91" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="T91" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F92" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G92" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H91" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I91" s="4" t="s">
+      <c r="H92" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="J91" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K91" s="5" t="s">
+      <c r="J92" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K92" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="M91" s="4" t="s">
+      <c r="M92" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="N91" s="4" t="s">
+      <c r="N92" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="P91" s="6" t="s">
+      <c r="P92" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="S91" s="4" t="s">
+      <c r="S92" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="T91" s="4" t="s">
+      <c r="T92" s="4" t="s">
         <v>447</v>
       </c>
     </row>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6274B1E3-C171-4213-9D24-6CF36510117C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2479FA-20E0-437E-872E-AC6220A9FE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="498">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1735,6 +1735,80 @@
   <si>
     <t>USB连接器-TYPE_C-TYPE-C 16PLC-H10.0-尺寸=9.5mm*3.8mm*12.0mm-使用寿命=10000次-母座-16P-直插-SHOUHAN(首韩)-TYPE_C_16P_LH_M</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5359631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090600000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090600000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XH连接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XH_2.54_1X2P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XH_2.54_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAFER-XH2.54-2PZZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XH连接器-WAFER-XH2.54-2PZZ-间距2.54mm-1X2P-直插-XUNPU(讯普)-XH_2.54_1X2P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XUNPU(讯普)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\WAFER-XH2.54-NPZZ_XUNPU_DS_20250409.pdf</t>
+  </si>
+  <si>
+    <t>7.5mm*5.9mm*10.4mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7429633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX-XH2.54-3PZZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Megastar(兆星)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connector_1X3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XH连接器-ZX-XH2.54-3PZZ-间距2.54mm-1X3P-直插-Megastar(兆星)-XH_2.54_1X3P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0mm*5.9mm*10.4mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\A2501_Megastar_DS_20250409.pdf</t>
   </si>
 </sst>
 </file>
@@ -2114,11 +2188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U92"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4874,6 +4948,106 @@
         <v>447</v>
       </c>
     </row>
+    <row r="93" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="T93" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="T94" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2479FA-20E0-437E-872E-AC6220A9FE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366D2121-F966-4075-AA64-A404A8B86587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="509">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1809,6 +1809,49 @@
   </si>
   <si>
     <t>G:\Library\Datasheet\09_Connector\A2501_Megastar_DS_20250409.pdf</t>
+  </si>
+  <si>
+    <t>SF090700000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC电源接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3010537</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-DC-007B-2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20℃~+80℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.15mm*10.2mm*12.2mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-005P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\HC-DC-007B-2.0_HCTL_DS_20250423.pdf</t>
+  </si>
+  <si>
+    <t>DC电源接口-HC-DC-007B-2.0-尺寸=13.15mm*10.2mm*12.2mm-使用寿命=5000次-弯插-HCTL(华灿天禄)-DC-005P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2188,11 +2231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5048,6 +5091,56 @@
         <v>492</v>
       </c>
     </row>
+    <row r="95" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="S95" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="T95" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366D2121-F966-4075-AA64-A404A8B86587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829FC5B-F32F-49F0-84EA-0D6BD4374F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="531">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1851,6 +1851,90 @@
   </si>
   <si>
     <t>DC电源接口-HC-DC-007B-2.0-尺寸=13.15mm*10.2mm*12.2mm-使用寿命=5000次-弯插-HCTL(华灿天禄)-DC-005P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF090800000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC连接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C262389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFA01-S20FCC-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS(钜硕电子)</t>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\AFA01_FPC_JS_DS_20250423.pdf</t>
+  </si>
+  <si>
+    <t>50V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20℃~+85℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.9,mm*5.95mm*2.0mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC_1.0_FL_1X20P_WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC连接器-AFA01-S20FCC-00-间距1.0mm-1X20P-翻盖式-下接触式-卧贴-JS(钜硕电子)-FPC_1.0_FL_1X20P_WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC_1X20P</t>
+  </si>
+  <si>
+    <t>SF090800000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC_0.5_FL_1X12P_WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2856799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC_1X12P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC-05F-12PH20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC连接器-FPC-05F-12PH20-间距0.5mm-1X12P-翻盖式-下接触式-卧贴-XUNPU(讯普)-FPC_0.5_FL_1X12P_WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\FPC0.5PHH2.0_FPC_XUNPU_DS_20250423.PDF</t>
+  </si>
+  <si>
+    <t>0.5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.4mm*5.20mm*2.0mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2231,11 +2315,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5141,6 +5225,106 @@
         <v>398</v>
       </c>
     </row>
+    <row r="96" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="S96" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="T96" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="S97" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="T97" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829FC5B-F32F-49F0-84EA-0D6BD4374F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9DA7D2-88D0-4F4A-B26A-857F156E8062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="535">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1154,251 +1154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090100000001</t>
-  </si>
-  <si>
-    <t>SF090100000002</t>
-  </si>
-  <si>
-    <t>SF090100000003</t>
-  </si>
-  <si>
-    <t>SF090100000004</t>
-  </si>
-  <si>
-    <t>SF090100000005</t>
-  </si>
-  <si>
-    <t>SF090100000006</t>
-  </si>
-  <si>
-    <t>SF090100000007</t>
-  </si>
-  <si>
-    <t>SF090100000008</t>
-  </si>
-  <si>
-    <t>SF090100000009</t>
-  </si>
-  <si>
-    <t>SF090100000010</t>
-  </si>
-  <si>
-    <t>SF090100000011</t>
-  </si>
-  <si>
-    <t>SF090100000012</t>
-  </si>
-  <si>
-    <t>SF090100000013</t>
-  </si>
-  <si>
-    <t>SF090100000014</t>
-  </si>
-  <si>
-    <t>SF090100000015</t>
-  </si>
-  <si>
-    <t>SF090100000016</t>
-  </si>
-  <si>
-    <t>SF090100000017</t>
-  </si>
-  <si>
-    <t>SF090100000018</t>
-  </si>
-  <si>
-    <t>SF090100000019</t>
-  </si>
-  <si>
-    <t>SF090100000020</t>
-  </si>
-  <si>
-    <t>SF090100000021</t>
-  </si>
-  <si>
-    <t>SF090100000022</t>
-  </si>
-  <si>
-    <t>SF090100000023</t>
-  </si>
-  <si>
-    <t>SF090100000024</t>
-  </si>
-  <si>
-    <t>SF090100000025</t>
-  </si>
-  <si>
-    <t>SF090100000026</t>
-  </si>
-  <si>
-    <t>SF090100000027</t>
-  </si>
-  <si>
-    <t>SF090100000028</t>
-  </si>
-  <si>
-    <t>SF090100000029</t>
-  </si>
-  <si>
-    <t>SF090100000030</t>
-  </si>
-  <si>
-    <t>SF090100000031</t>
-  </si>
-  <si>
-    <t>SF090100000032</t>
-  </si>
-  <si>
-    <t>SF090100000033</t>
-  </si>
-  <si>
-    <t>SF090100000034</t>
-  </si>
-  <si>
-    <t>SF090100000035</t>
-  </si>
-  <si>
-    <t>SF090100000036</t>
-  </si>
-  <si>
-    <t>SF090100000037</t>
-  </si>
-  <si>
-    <t>SF090100000038</t>
-  </si>
-  <si>
-    <t>SF090100000039</t>
-  </si>
-  <si>
-    <t>SF090100000041</t>
-  </si>
-  <si>
-    <t>SF090200000001</t>
-  </si>
-  <si>
-    <t>SF090200000002</t>
-  </si>
-  <si>
-    <t>SF090200000003</t>
-  </si>
-  <si>
-    <t>SF090200000004</t>
-  </si>
-  <si>
-    <t>SF090200000005</t>
-  </si>
-  <si>
-    <t>SF090200000006</t>
-  </si>
-  <si>
-    <t>SF090200000007</t>
-  </si>
-  <si>
-    <t>SF090200000008</t>
-  </si>
-  <si>
-    <t>SF090200000009</t>
-  </si>
-  <si>
-    <t>SF090200000010</t>
-  </si>
-  <si>
-    <t>SF090200000011</t>
-  </si>
-  <si>
-    <t>SF090200000012</t>
-  </si>
-  <si>
-    <t>SF090200000013</t>
-  </si>
-  <si>
-    <t>SF090200000014</t>
-  </si>
-  <si>
-    <t>SF090200000015</t>
-  </si>
-  <si>
-    <t>SF090200000016</t>
-  </si>
-  <si>
-    <t>SF090200000017</t>
-  </si>
-  <si>
-    <t>SF090200000018</t>
-  </si>
-  <si>
-    <t>SF090200000019</t>
-  </si>
-  <si>
-    <t>SF090200000020</t>
-  </si>
-  <si>
-    <t>SF090200000021</t>
-  </si>
-  <si>
-    <t>SF090200000022</t>
-  </si>
-  <si>
-    <t>SF090200000023</t>
-  </si>
-  <si>
-    <t>SF090200000024</t>
-  </si>
-  <si>
-    <t>SF090200000025</t>
-  </si>
-  <si>
-    <t>SF090200000026</t>
-  </si>
-  <si>
-    <t>SF090200000027</t>
-  </si>
-  <si>
-    <t>SF090200000028</t>
-  </si>
-  <si>
-    <t>SF090200000029</t>
-  </si>
-  <si>
-    <t>SF090200000030</t>
-  </si>
-  <si>
-    <t>SF090200000031</t>
-  </si>
-  <si>
-    <t>SF090200000032</t>
-  </si>
-  <si>
-    <t>SF090200000033</t>
-  </si>
-  <si>
-    <t>SF090200000034</t>
-  </si>
-  <si>
-    <t>SF090200000035</t>
-  </si>
-  <si>
-    <t>SF090200000036</t>
-  </si>
-  <si>
-    <t>SF090200000037</t>
-  </si>
-  <si>
-    <t>SF090200000038</t>
-  </si>
-  <si>
-    <t>SF090200000039</t>
-  </si>
-  <si>
-    <t>SF090300000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF090100000040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双排排针-A2005WR-2x4P-间距2.00mm-2X4P-弯插- CJT(长江连接器)-PZ_2.00_2X4P_WH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,20 +1213,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090200000040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G:\Library\Datasheet\09_Connector\ZXS-1191BJ-2P-2.54PH-5.5H_SYS_DS_20250401.pdf</t>
   </si>
   <si>
     <t>G:\Library\Datasheet\09_Connector\PM200_HCTL_DS_20250402.pdf</t>
   </si>
   <si>
-    <t>SF090200000041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PM_2.00_2X4P_LH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1492,10 +1239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090400000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USB连接器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1531,14 +1274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090100000042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF090100000043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PZ_2.00_2X3P_WH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1578,10 +1313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090500000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PH连接器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1617,10 +1348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090200000042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C2925566</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1648,10 +1375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090200000043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C3012172</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1664,10 +1387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090200000044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C2906072</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,10 +1414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090400000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C3151747</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1741,14 +1456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090600000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF090600000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>XH连接器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1811,10 +1518,6 @@
     <t>G:\Library\Datasheet\09_Connector\A2501_Megastar_DS_20250409.pdf</t>
   </si>
   <si>
-    <t>SF090700000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DC电源接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1854,10 +1557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF090800000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FPC连接器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1903,10 +1602,6 @@
     <t>FPC_1X20P</t>
   </si>
   <si>
-    <t>SF090800000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FPC_0.5_FL_1X12P_WT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1936,6 +1631,309 @@
   <si>
     <t>10.4mm*5.20mm*2.0mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_2.00_1X6P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH连接器-HDGC2001WR-2P-间距2.00mm-1X6P-直插-HDGC(华德共创)-PH_2.00_1X2P_WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5359603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF09010001</t>
+  </si>
+  <si>
+    <t>SF09010002</t>
+  </si>
+  <si>
+    <t>SF09010003</t>
+  </si>
+  <si>
+    <t>SF09010004</t>
+  </si>
+  <si>
+    <t>SF09010005</t>
+  </si>
+  <si>
+    <t>SF09010006</t>
+  </si>
+  <si>
+    <t>SF09010007</t>
+  </si>
+  <si>
+    <t>SF09010008</t>
+  </si>
+  <si>
+    <t>SF09010009</t>
+  </si>
+  <si>
+    <t>SF09010010</t>
+  </si>
+  <si>
+    <t>SF09010011</t>
+  </si>
+  <si>
+    <t>SF09010012</t>
+  </si>
+  <si>
+    <t>SF09010013</t>
+  </si>
+  <si>
+    <t>SF09010014</t>
+  </si>
+  <si>
+    <t>SF09010015</t>
+  </si>
+  <si>
+    <t>SF09010016</t>
+  </si>
+  <si>
+    <t>SF09010017</t>
+  </si>
+  <si>
+    <t>SF09010018</t>
+  </si>
+  <si>
+    <t>SF09010019</t>
+  </si>
+  <si>
+    <t>SF09010020</t>
+  </si>
+  <si>
+    <t>SF09010021</t>
+  </si>
+  <si>
+    <t>SF09010022</t>
+  </si>
+  <si>
+    <t>SF09010023</t>
+  </si>
+  <si>
+    <t>SF09010024</t>
+  </si>
+  <si>
+    <t>SF09010025</t>
+  </si>
+  <si>
+    <t>SF09010026</t>
+  </si>
+  <si>
+    <t>SF09010027</t>
+  </si>
+  <si>
+    <t>SF09010028</t>
+  </si>
+  <si>
+    <t>SF09010029</t>
+  </si>
+  <si>
+    <t>SF09010030</t>
+  </si>
+  <si>
+    <t>SF09010031</t>
+  </si>
+  <si>
+    <t>SF09010032</t>
+  </si>
+  <si>
+    <t>SF09010033</t>
+  </si>
+  <si>
+    <t>SF09010034</t>
+  </si>
+  <si>
+    <t>SF09010035</t>
+  </si>
+  <si>
+    <t>SF09010036</t>
+  </si>
+  <si>
+    <t>SF09010037</t>
+  </si>
+  <si>
+    <t>SF09010038</t>
+  </si>
+  <si>
+    <t>SF09010039</t>
+  </si>
+  <si>
+    <t>SF09010040</t>
+  </si>
+  <si>
+    <t>SF09010041</t>
+  </si>
+  <si>
+    <t>SF09010042</t>
+  </si>
+  <si>
+    <t>SF09010043</t>
+  </si>
+  <si>
+    <t>SF09020001</t>
+  </si>
+  <si>
+    <t>SF09020002</t>
+  </si>
+  <si>
+    <t>SF09020003</t>
+  </si>
+  <si>
+    <t>SF09020004</t>
+  </si>
+  <si>
+    <t>SF09020005</t>
+  </si>
+  <si>
+    <t>SF09020006</t>
+  </si>
+  <si>
+    <t>SF09020007</t>
+  </si>
+  <si>
+    <t>SF09020008</t>
+  </si>
+  <si>
+    <t>SF09020009</t>
+  </si>
+  <si>
+    <t>SF09020010</t>
+  </si>
+  <si>
+    <t>SF09020011</t>
+  </si>
+  <si>
+    <t>SF09020012</t>
+  </si>
+  <si>
+    <t>SF09020013</t>
+  </si>
+  <si>
+    <t>SF09020014</t>
+  </si>
+  <si>
+    <t>SF09020015</t>
+  </si>
+  <si>
+    <t>SF09020016</t>
+  </si>
+  <si>
+    <t>SF09020017</t>
+  </si>
+  <si>
+    <t>SF09020018</t>
+  </si>
+  <si>
+    <t>SF09020019</t>
+  </si>
+  <si>
+    <t>SF09020020</t>
+  </si>
+  <si>
+    <t>SF09020021</t>
+  </si>
+  <si>
+    <t>SF09020022</t>
+  </si>
+  <si>
+    <t>SF09020023</t>
+  </si>
+  <si>
+    <t>SF09020024</t>
+  </si>
+  <si>
+    <t>SF09020025</t>
+  </si>
+  <si>
+    <t>SF09020026</t>
+  </si>
+  <si>
+    <t>SF09020027</t>
+  </si>
+  <si>
+    <t>SF09020028</t>
+  </si>
+  <si>
+    <t>SF09020029</t>
+  </si>
+  <si>
+    <t>SF09020030</t>
+  </si>
+  <si>
+    <t>SF09020031</t>
+  </si>
+  <si>
+    <t>SF09020032</t>
+  </si>
+  <si>
+    <t>SF09020033</t>
+  </si>
+  <si>
+    <t>SF09020034</t>
+  </si>
+  <si>
+    <t>SF09020035</t>
+  </si>
+  <si>
+    <t>SF09020036</t>
+  </si>
+  <si>
+    <t>SF09020037</t>
+  </si>
+  <si>
+    <t>SF09020038</t>
+  </si>
+  <si>
+    <t>SF09020039</t>
+  </si>
+  <si>
+    <t>SF09020040</t>
+  </si>
+  <si>
+    <t>SF09020041</t>
+  </si>
+  <si>
+    <t>SF09020042</t>
+  </si>
+  <si>
+    <t>SF09020043</t>
+  </si>
+  <si>
+    <t>SF09020044</t>
+  </si>
+  <si>
+    <t>SF09030001</t>
+  </si>
+  <si>
+    <t>SF09040001</t>
+  </si>
+  <si>
+    <t>SF09040002</t>
+  </si>
+  <si>
+    <t>SF09050001</t>
+  </si>
+  <si>
+    <t>SF09050002</t>
+  </si>
+  <si>
+    <t>SF09060001</t>
+  </si>
+  <si>
+    <t>SF09060002</t>
+  </si>
+  <si>
+    <t>SF09070001</t>
+  </si>
+  <si>
+    <t>SF09080001</t>
+  </si>
+  <si>
+    <t>SF09080002</t>
   </si>
 </sst>
 </file>
@@ -2315,30 +2313,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
-    <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
+    <col min="1" max="3" width="25.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.5546875" style="5" customWidth="1"/>
+    <col min="12" max="18" width="20.5546875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.5546875" style="4" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -2394,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>432</v>
+        <v>346</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>6</v>
@@ -2403,9 +2401,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>310</v>
+        <v>438</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>20</v>
@@ -2429,9 +2427,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>311</v>
+        <v>439</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>20</v>
@@ -2455,9 +2453,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>440</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>20</v>
@@ -2481,9 +2479,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
@@ -2507,9 +2505,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>314</v>
+        <v>442</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>20</v>
@@ -2533,9 +2531,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>315</v>
+        <v>443</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>20</v>
@@ -2559,9 +2557,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>316</v>
+        <v>444</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>20</v>
@@ -2585,9 +2583,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>317</v>
+        <v>445</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
@@ -2611,9 +2609,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>318</v>
+        <v>446</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -2637,9 +2635,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>20</v>
@@ -2663,9 +2661,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>320</v>
+        <v>448</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>20</v>
@@ -2689,9 +2687,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>321</v>
+        <v>449</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -2715,9 +2713,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>322</v>
+        <v>450</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -2741,9 +2739,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -2767,9 +2765,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>324</v>
+        <v>452</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -2793,9 +2791,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>325</v>
+        <v>453</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -2819,9 +2817,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>326</v>
+        <v>454</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -2845,9 +2843,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -2871,9 +2869,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>328</v>
+        <v>456</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -2897,9 +2895,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>329</v>
+        <v>457</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -2923,9 +2921,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>330</v>
+        <v>458</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -2949,9 +2947,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>331</v>
+        <v>459</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -2975,9 +2973,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>332</v>
+        <v>460</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -3001,9 +2999,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>333</v>
+        <v>461</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -3027,9 +3025,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>334</v>
+        <v>462</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>20</v>
@@ -3053,9 +3051,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>335</v>
+        <v>463</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>20</v>
@@ -3079,9 +3077,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>336</v>
+        <v>464</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>20</v>
@@ -3105,9 +3103,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>337</v>
+        <v>465</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>20</v>
@@ -3131,9 +3129,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>338</v>
+        <v>466</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>20</v>
@@ -3157,9 +3155,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>339</v>
+        <v>467</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>20</v>
@@ -3183,9 +3181,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>340</v>
+        <v>468</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>20</v>
@@ -3209,9 +3207,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>341</v>
+        <v>469</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>20</v>
@@ -3235,9 +3233,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>342</v>
+        <v>470</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>20</v>
@@ -3261,9 +3259,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>343</v>
+        <v>471</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>20</v>
@@ -3287,9 +3285,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>344</v>
+        <v>472</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>20</v>
@@ -3313,9 +3311,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>345</v>
+        <v>473</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>20</v>
@@ -3339,9 +3337,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>346</v>
+        <v>474</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>20</v>
@@ -3365,9 +3363,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>347</v>
+        <v>475</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>20</v>
@@ -3391,9 +3389,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>348</v>
+        <v>476</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>20</v>
@@ -3417,12 +3415,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>390</v>
+        <v>477</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>20</v>
@@ -3434,7 +3432,7 @@
         <v>304</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>391</v>
+        <v>310</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>43</v>
@@ -3461,18 +3459,18 @@
         <v>299</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>349</v>
+        <v>478</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>20</v>
@@ -3484,7 +3482,7 @@
         <v>305</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>392</v>
+        <v>311</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>44</v>
@@ -3511,18 +3509,18 @@
         <v>299</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>467</v>
+        <v>377</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>20</v>
@@ -3534,7 +3532,7 @@
         <v>297</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>47</v>
@@ -3561,30 +3559,30 @@
         <v>299</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>435</v>
+        <v>349</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>427</v>
+        <v>341</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>428</v>
+        <v>342</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>429</v>
+        <v>343</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>42</v>
@@ -3593,33 +3591,33 @@
         <v>293</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>427</v>
+        <v>341</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>431</v>
+        <v>345</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>299</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>436</v>
+        <v>350</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>350</v>
+        <v>481</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>60</v>
@@ -3643,9 +3641,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>351</v>
+        <v>482</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>60</v>
@@ -3669,9 +3667,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>352</v>
+        <v>483</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>60</v>
@@ -3695,9 +3693,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>353</v>
+        <v>484</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>60</v>
@@ -3721,9 +3719,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>60</v>
@@ -3747,9 +3745,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>355</v>
+        <v>486</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>60</v>
@@ -3773,9 +3771,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>356</v>
+        <v>487</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>60</v>
@@ -3799,9 +3797,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>357</v>
+        <v>488</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>60</v>
@@ -3825,9 +3823,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>358</v>
+        <v>489</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>60</v>
@@ -3851,9 +3849,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>359</v>
+        <v>490</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>60</v>
@@ -3877,9 +3875,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>360</v>
+        <v>491</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>60</v>
@@ -3903,9 +3901,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>361</v>
+        <v>492</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>60</v>
@@ -3929,9 +3927,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>362</v>
+        <v>493</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>60</v>
@@ -3955,9 +3953,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>363</v>
+        <v>494</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>60</v>
@@ -3981,9 +3979,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>364</v>
+        <v>495</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>60</v>
@@ -4007,9 +4005,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>365</v>
+        <v>496</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>60</v>
@@ -4033,9 +4031,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>366</v>
+        <v>497</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>60</v>
@@ -4059,9 +4057,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>367</v>
+        <v>498</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>60</v>
@@ -4085,9 +4083,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>368</v>
+        <v>499</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>60</v>
@@ -4111,9 +4109,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>369</v>
+        <v>500</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>60</v>
@@ -4137,9 +4135,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>370</v>
+        <v>501</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>60</v>
@@ -4163,9 +4161,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>371</v>
+        <v>502</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>60</v>
@@ -4189,9 +4187,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>372</v>
+        <v>503</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>60</v>
@@ -4215,9 +4213,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>60</v>
@@ -4241,9 +4239,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>60</v>
@@ -4267,9 +4265,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>375</v>
+        <v>506</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>60</v>
@@ -4293,9 +4291,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>376</v>
+        <v>507</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>60</v>
@@ -4319,9 +4317,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>60</v>
@@ -4345,9 +4343,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>378</v>
+        <v>509</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>60</v>
@@ -4371,9 +4369,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>60</v>
@@ -4397,9 +4395,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>380</v>
+        <v>511</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>60</v>
@@ -4423,9 +4421,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>381</v>
+        <v>512</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>60</v>
@@ -4449,9 +4447,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>382</v>
+        <v>513</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>60</v>
@@ -4475,9 +4473,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>383</v>
+        <v>514</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>60</v>
@@ -4501,9 +4499,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>384</v>
+        <v>515</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>60</v>
@@ -4527,9 +4525,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>385</v>
+        <v>516</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>60</v>
@@ -4553,9 +4551,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>386</v>
+        <v>517</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>60</v>
@@ -4579,9 +4577,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>387</v>
+        <v>518</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>60</v>
@@ -4605,9 +4603,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>388</v>
+        <v>519</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>60</v>
@@ -4631,24 +4629,24 @@
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>406</v>
+        <v>520</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>394</v>
+        <v>313</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>395</v>
+        <v>314</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>23</v>
@@ -4657,48 +4655,48 @@
         <v>293</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>395</v>
+        <v>314</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="P84" s="6" t="s">
         <v>299</v>
       </c>
       <c r="S84" s="4" t="s">
-        <v>405</v>
+        <v>324</v>
       </c>
       <c r="T84" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>409</v>
+        <v>521</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>412</v>
+        <v>329</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>413</v>
+        <v>330</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>43</v>
@@ -4707,7 +4705,7 @@
         <v>293</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>294</v>
@@ -4725,30 +4723,30 @@
         <v>299</v>
       </c>
       <c r="S85" s="4" t="s">
-        <v>414</v>
+        <v>331</v>
       </c>
       <c r="T85" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>451</v>
+        <v>363</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>47</v>
@@ -4757,16 +4755,16 @@
         <v>293</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>453</v>
+        <v>365</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>301</v>
@@ -4775,30 +4773,30 @@
         <v>299</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>457</v>
+        <v>368</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>458</v>
+        <v>369</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>459</v>
+        <v>370</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>47</v>
@@ -4807,48 +4805,48 @@
         <v>293</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="P87" s="6" t="s">
         <v>299</v>
       </c>
       <c r="S87" s="4" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="T87" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>462</v>
+        <v>372</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>43</v>
@@ -4857,33 +4855,33 @@
         <v>293</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>299</v>
       </c>
       <c r="S88" s="4" t="s">
-        <v>414</v>
+        <v>331</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>389</v>
+        <v>525</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>306</v>
@@ -4895,7 +4893,7 @@
         <v>308</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>22</v>
@@ -4910,139 +4908,139 @@
         <v>294</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>399</v>
+        <v>318</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="T89" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>415</v>
+        <v>526</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>418</v>
+        <v>334</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>418</v>
+        <v>334</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>430</v>
+        <v>344</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>424</v>
+        <v>340</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>423</v>
+        <v>339</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>477</v>
+        <v>386</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>476</v>
+        <v>385</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>420</v>
+        <v>336</v>
       </c>
       <c r="S90" s="4" t="s">
-        <v>421</v>
+        <v>337</v>
       </c>
       <c r="T90" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>469</v>
+        <v>378</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>470</v>
+        <v>379</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>470</v>
+        <v>379</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>478</v>
+        <v>387</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>471</v>
+        <v>380</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>476</v>
+        <v>385</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>472</v>
+        <v>381</v>
       </c>
       <c r="S91" s="4" t="s">
-        <v>473</v>
+        <v>382</v>
       </c>
       <c r="T91" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>438</v>
+        <v>528</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>443</v>
+        <v>356</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>22</v>
@@ -5051,278 +5049,296 @@
         <v>293</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="N92" s="4" t="s">
         <v>301</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>420</v>
+        <v>336</v>
       </c>
       <c r="S92" s="4" t="s">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="T92" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>482</v>
+        <v>352</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="G93" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H93" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="P93" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="S93" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="T93" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>493</v>
-      </c>
       <c r="H94" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>484</v>
+        <v>390</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>497</v>
+        <v>395</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>300</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>496</v>
+        <v>301</v>
       </c>
       <c r="P94" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="T94" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="S95" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="T95" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="S96" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="T96" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="M97" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="S94" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="T94" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="P95" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="S95" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="T95" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="P96" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="S96" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="T96" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>515</v>
-      </c>
       <c r="N97" s="4" t="s">
-        <v>529</v>
+        <v>421</v>
       </c>
       <c r="P97" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="S97" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="T97" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="M98" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="S97" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="T97" s="4" t="s">
-        <v>487</v>
+      <c r="N98" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="S98" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="T98" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9DA7D2-88D0-4F4A-B26A-857F156E8062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE63AA-C11C-4F0E-B042-C83223E3DDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="539">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1637,10 +1637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PH连接器-HDGC2001WR-2P-间距2.00mm-1X6P-直插-HDGC(华德共创)-PH_2.00_1X2P_WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C5359603</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1934,6 +1930,26 @@
   </si>
   <si>
     <t>SF09080002</t>
+  </si>
+  <si>
+    <t>WAFER-PH2.0-6PZZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connector_1X6P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH连接器-WAFER-PH2.0-6PZZ-间距2.00mm-1X6P-直插-XUNPU(讯普)-PH_2.00_1X6P_LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\WAFER-PH2.0-NPZZ_XUNPU_DS_20250513.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.0mm*4.7mm*9.35mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2316,8 +2332,8 @@
   <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2403,7 +2419,7 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>20</v>
@@ -2429,7 +2445,7 @@
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>20</v>
@@ -2455,7 +2471,7 @@
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>20</v>
@@ -2481,7 +2497,7 @@
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
@@ -2507,7 +2523,7 @@
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>20</v>
@@ -2533,7 +2549,7 @@
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>20</v>
@@ -2559,7 +2575,7 @@
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>20</v>
@@ -2585,7 +2601,7 @@
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
@@ -2611,7 +2627,7 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -2637,7 +2653,7 @@
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>20</v>
@@ -2663,7 +2679,7 @@
     </row>
     <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>20</v>
@@ -2689,7 +2705,7 @@
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -2715,7 +2731,7 @@
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -2741,7 +2757,7 @@
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -2767,7 +2783,7 @@
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -2793,7 +2809,7 @@
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -2819,7 +2835,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -2845,7 +2861,7 @@
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -2871,7 +2887,7 @@
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -2897,7 +2913,7 @@
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -2923,7 +2939,7 @@
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -2949,7 +2965,7 @@
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -2975,7 +2991,7 @@
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -3001,7 +3017,7 @@
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -3027,7 +3043,7 @@
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>20</v>
@@ -3053,7 +3069,7 @@
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>20</v>
@@ -3079,7 +3095,7 @@
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>20</v>
@@ -3105,7 +3121,7 @@
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>20</v>
@@ -3131,7 +3147,7 @@
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>20</v>
@@ -3157,7 +3173,7 @@
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>20</v>
@@ -3183,7 +3199,7 @@
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>20</v>
@@ -3209,7 +3225,7 @@
     </row>
     <row r="33" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>20</v>
@@ -3235,7 +3251,7 @@
     </row>
     <row r="34" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>20</v>
@@ -3261,7 +3277,7 @@
     </row>
     <row r="35" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>20</v>
@@ -3287,7 +3303,7 @@
     </row>
     <row r="36" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>20</v>
@@ -3313,7 +3329,7 @@
     </row>
     <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>20</v>
@@ -3339,7 +3355,7 @@
     </row>
     <row r="38" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>20</v>
@@ -3365,7 +3381,7 @@
     </row>
     <row r="39" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>20</v>
@@ -3391,7 +3407,7 @@
     </row>
     <row r="40" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>20</v>
@@ -3417,7 +3433,7 @@
     </row>
     <row r="41" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>375</v>
@@ -3467,7 +3483,7 @@
     </row>
     <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>376</v>
@@ -3517,7 +3533,7 @@
     </row>
     <row r="43" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>377</v>
@@ -3567,7 +3583,7 @@
     </row>
     <row r="44" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>374</v>
@@ -3617,7 +3633,7 @@
     </row>
     <row r="45" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>60</v>
@@ -3643,7 +3659,7 @@
     </row>
     <row r="46" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>60</v>
@@ -3669,7 +3685,7 @@
     </row>
     <row r="47" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>60</v>
@@ -3695,7 +3711,7 @@
     </row>
     <row r="48" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>60</v>
@@ -3721,7 +3737,7 @@
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>60</v>
@@ -3747,7 +3763,7 @@
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>60</v>
@@ -3773,7 +3789,7 @@
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>60</v>
@@ -3799,7 +3815,7 @@
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>60</v>
@@ -3825,7 +3841,7 @@
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>60</v>
@@ -3851,7 +3867,7 @@
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>60</v>
@@ -3877,7 +3893,7 @@
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>60</v>
@@ -3903,7 +3919,7 @@
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>60</v>
@@ -3929,7 +3945,7 @@
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>60</v>
@@ -3955,7 +3971,7 @@
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>60</v>
@@ -3981,7 +3997,7 @@
     </row>
     <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>60</v>
@@ -4007,7 +4023,7 @@
     </row>
     <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>60</v>
@@ -4033,7 +4049,7 @@
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>60</v>
@@ -4059,7 +4075,7 @@
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>60</v>
@@ -4085,7 +4101,7 @@
     </row>
     <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>60</v>
@@ -4111,7 +4127,7 @@
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>60</v>
@@ -4137,7 +4153,7 @@
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>60</v>
@@ -4163,7 +4179,7 @@
     </row>
     <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>60</v>
@@ -4189,7 +4205,7 @@
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>60</v>
@@ -4215,7 +4231,7 @@
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>60</v>
@@ -4241,7 +4257,7 @@
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>60</v>
@@ -4267,7 +4283,7 @@
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>60</v>
@@ -4293,7 +4309,7 @@
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>60</v>
@@ -4319,7 +4335,7 @@
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>60</v>
@@ -4345,7 +4361,7 @@
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>60</v>
@@ -4371,7 +4387,7 @@
     </row>
     <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>60</v>
@@ -4397,7 +4413,7 @@
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>60</v>
@@ -4423,7 +4439,7 @@
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>60</v>
@@ -4449,7 +4465,7 @@
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>60</v>
@@ -4475,7 +4491,7 @@
     </row>
     <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>60</v>
@@ -4501,7 +4517,7 @@
     </row>
     <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>60</v>
@@ -4527,7 +4543,7 @@
     </row>
     <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>60</v>
@@ -4553,7 +4569,7 @@
     </row>
     <row r="81" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>60</v>
@@ -4579,7 +4595,7 @@
     </row>
     <row r="82" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>60</v>
@@ -4605,7 +4621,7 @@
     </row>
     <row r="83" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>60</v>
@@ -4631,7 +4647,7 @@
     </row>
     <row r="84" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>313</v>
@@ -4681,7 +4697,7 @@
     </row>
     <row r="85" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>329</v>
@@ -4731,7 +4747,7 @@
     </row>
     <row r="86" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>361</v>
@@ -4781,7 +4797,7 @@
     </row>
     <row r="87" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>368</v>
@@ -4831,7 +4847,7 @@
     </row>
     <row r="88" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>371</v>
@@ -4881,7 +4897,7 @@
     </row>
     <row r="89" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>306</v>
@@ -4925,7 +4941,7 @@
     </row>
     <row r="90" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>333</v>
@@ -4975,7 +4991,7 @@
     </row>
     <row r="91" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>378</v>
@@ -5025,7 +5041,7 @@
     </row>
     <row r="92" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>356</v>
@@ -5075,10 +5091,10 @@
     </row>
     <row r="93" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>352</v>
@@ -5086,14 +5102,46 @@
       <c r="D93" s="4" t="s">
         <v>435</v>
       </c>
+      <c r="E93" s="4" t="s">
+        <v>534</v>
+      </c>
       <c r="F93" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="P93" s="6"/>
+        <v>536</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="T93" s="4" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="94" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>388</v>
@@ -5143,7 +5191,7 @@
     </row>
     <row r="95" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>397</v>
@@ -5193,7 +5241,7 @@
     </row>
     <row r="96" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>406</v>
@@ -5243,7 +5291,7 @@
     </row>
     <row r="97" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>416</v>
@@ -5293,7 +5341,7 @@
     </row>
     <row r="98" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>428</v>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE63AA-C11C-4F0E-B042-C83223E3DDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3AA109-9583-499B-B4F8-CABB5E6A6584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="548">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1949,6 +1949,40 @@
   </si>
   <si>
     <t>14.0mm*4.7mm*9.35mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF09040003</t>
+  </si>
+  <si>
+    <t>C720526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB-231-BRW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_A_4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_A_4P_WH_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\USB-231-BRW_XUNPU_DS_20250513.pdf</t>
+  </si>
+  <si>
+    <t>-20℃~+70℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.1mm*13.1mm*10.97mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接器-TYPE_A-USB-231-BRW-尺寸=14.1mm*13.1mm*10.97mm-使用寿命=5000次-母座-4P-卧插-XUNPU(讯普)-TYPE_A_4P_WH_M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2329,11 +2363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U98"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5041,90 +5075,90 @@
     </row>
     <row r="92" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>356</v>
+        <v>540</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>353</v>
+        <v>541</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>354</v>
+        <v>541</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>355</v>
+        <v>547</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>353</v>
+        <v>543</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>357</v>
+        <v>544</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>336</v>
+        <v>545</v>
       </c>
       <c r="S92" s="4" t="s">
-        <v>359</v>
+        <v>546</v>
       </c>
       <c r="T92" s="4" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>436</v>
+        <v>356</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>352</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>435</v>
+        <v>353</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>534</v>
+        <v>354</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>536</v>
+        <v>355</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>535</v>
+        <v>22</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>435</v>
+        <v>353</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>537</v>
+        <v>357</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="N93" s="4" t="s">
         <v>301</v>
@@ -5133,45 +5167,45 @@
         <v>336</v>
       </c>
       <c r="S93" s="4" t="s">
-        <v>538</v>
+        <v>359</v>
       </c>
       <c r="T93" s="4" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>392</v>
+        <v>534</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>393</v>
+        <v>536</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>22</v>
+        <v>535</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>395</v>
+        <v>537</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>300</v>
@@ -5183,7 +5217,7 @@
         <v>336</v>
       </c>
       <c r="S94" s="4" t="s">
-        <v>396</v>
+        <v>538</v>
       </c>
       <c r="T94" s="4" t="s">
         <v>394</v>
@@ -5191,201 +5225,251 @@
     </row>
     <row r="95" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>389</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>300</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>403</v>
+        <v>301</v>
       </c>
       <c r="P95" s="6" t="s">
         <v>336</v>
       </c>
       <c r="S95" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="T95" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>408</v>
+        <v>300</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="S96" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="T96" s="4" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="S97" s="4" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="T97" s="4" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>415</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>293</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>294</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>420</v>
       </c>
       <c r="N98" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="S98" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="T98" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="N99" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="P98" s="6" t="s">
+      <c r="P99" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="S98" s="4" t="s">
+      <c r="S99" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="T98" s="4" t="s">
+      <c r="T99" s="4" t="s">
         <v>394</v>
       </c>
     </row>

--- a/AD_Library/Excel/09_Connector.xlsx
+++ b/AD_Library/Excel/09_Connector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3AA109-9583-499B-B4F8-CABB5E6A6584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3877DF6E-25F4-4372-A863-EB8FC06B3147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="558">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1983,6 +1983,45 @@
   </si>
   <si>
     <t>USB连接器-TYPE_A-USB-231-BRW-尺寸=14.1mm*13.1mm*10.97mm-使用寿命=5000次-母座-4P-卧插-XUNPU(讯普)-TYPE_A_4P_WH_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF09090001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HY911130A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C55679</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45_ETH_1000M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRUN(汉仁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.3mm*16.04mm*16.55mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45网口连接器-千兆网口-HY911130A-双LED-尺寸=21.3mm*16.04mm*16.55mm-使用寿命=750次-HANRUN(汉仁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\09_Connector\HY911130A_HANRUN_DS_20250513.pdf</t>
+  </si>
+  <si>
+    <t>RJ45_HY911130A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2363,11 +2402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U99"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5473,6 +5512,50 @@
         <v>394</v>
       </c>
     </row>
+    <row r="100" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="S100" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="T100" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
